--- a/RT_predict_confirm.xlsx
+++ b/RT_predict_confirm.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunwoo\PycharmProjects\RTPredict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA97B416-8025-421C-9C24-A64BDEE14BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF07FB41-56B4-4196-AC5D-83EF7A846BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT_predict_confirm - 복사본" sheetId="1" r:id="rId1"/>
     <sheet name="except outlier" sheetId="2" r:id="rId2"/>
+    <sheet name="total metric except outlier" sheetId="3" r:id="rId3"/>
+    <sheet name="total metric except outlier2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RT_predict_confirm - 복사본'!$A$1:$E$316</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="357">
   <si>
     <t>CN(C)C1=C(C=CC=C2S(=O)(NC(C(O)=O)CC3=CN(C)C=N3)=O)C2=CC=C1</t>
   </si>
@@ -1021,6 +1023,102 @@
   <si>
     <t>Dns_SMILES</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약 출력</t>
+  </si>
+  <si>
+    <t>회귀분석 통계량</t>
+  </si>
+  <si>
+    <t>다중 상관계수</t>
+  </si>
+  <si>
+    <t>결정계수</t>
+  </si>
+  <si>
+    <t>조정된 결정계수</t>
+  </si>
+  <si>
+    <t>표준 오차</t>
+  </si>
+  <si>
+    <t>관측수</t>
+  </si>
+  <si>
+    <t>분산 분석</t>
+  </si>
+  <si>
+    <t>회귀</t>
+  </si>
+  <si>
+    <t>잔차</t>
+  </si>
+  <si>
+    <t>계</t>
+  </si>
+  <si>
+    <t>Y 절편</t>
+  </si>
+  <si>
+    <t>자유도</t>
+  </si>
+  <si>
+    <t>제곱합</t>
+  </si>
+  <si>
+    <t>제곱 평균</t>
+  </si>
+  <si>
+    <t>F 비</t>
+  </si>
+  <si>
+    <t>유의한 F</t>
+  </si>
+  <si>
+    <t>계수</t>
+  </si>
+  <si>
+    <t>t 통계량</t>
+  </si>
+  <si>
+    <t>P-값</t>
+  </si>
+  <si>
+    <t>하위 95%</t>
+  </si>
+  <si>
+    <t>상위 95%</t>
+  </si>
+  <si>
+    <t>하위 95.0%</t>
+  </si>
+  <si>
+    <t>상위 95.0%</t>
+  </si>
+  <si>
+    <t>X 1</t>
+  </si>
+  <si>
+    <t>F-검정: 분산에 대한 두 집단</t>
+  </si>
+  <si>
+    <t>변수 1</t>
+  </si>
+  <si>
+    <t>변수 2</t>
+  </si>
+  <si>
+    <t>평균</t>
+  </si>
+  <si>
+    <t>분산</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) 단측 검정</t>
+  </si>
+  <si>
+    <t>F 기각치: 단측 검정</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,8 +1466,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1481,6 +1585,26 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,8 +1737,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1995,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="F305" sqref="F305"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302:XFD302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2029,11 +2168,11 @@
         <v>3.51</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D65" si="0">C2-B2</f>
         <v>2.36</v>
       </c>
       <c r="E2">
-        <f>IF(OR(D2&lt;$G$5, D2&gt;$G$6),1,0)</f>
+        <f t="shared" ref="E2:E65" si="1">IF(OR(D2&lt;$G$5, D2&gt;$G$6),1,0)</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -2055,11 +2194,11 @@
         <v>3.08</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="E3">
-        <f>IF(OR(D3&lt;$G$5, D3&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -2081,11 +2220,11 @@
         <v>7.42</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>5.98</v>
       </c>
       <c r="E4">
-        <f>IF(OR(D4&lt;$G$5, D4&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -2107,11 +2246,11 @@
         <v>2.95</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="E5">
-        <f>IF(OR(D5&lt;$G$5, D5&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" t="s">
@@ -2133,11 +2272,11 @@
         <v>2.96</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
       <c r="E6">
-        <f>IF(OR(D6&lt;$G$5, D6&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" t="s">
@@ -2159,11 +2298,11 @@
         <v>2.74</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="E7">
-        <f>IF(OR(D7&lt;$G$5, D7&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2178,11 +2317,11 @@
         <v>3.16</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
       <c r="E8">
-        <f>IF(OR(D8&lt;$G$5, D8&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2197,11 +2336,11 @@
         <v>4.74</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>3.1000000000000005</v>
       </c>
       <c r="E9">
-        <f>IF(OR(D9&lt;$G$5, D9&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2216,11 +2355,11 @@
         <v>3.13</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
       <c r="E10">
-        <f>IF(OR(D10&lt;$G$5, D10&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2235,11 +2374,11 @@
         <v>3.8</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="E11">
-        <f>IF(OR(D11&lt;$G$5, D11&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2254,11 +2393,11 @@
         <v>3.36</v>
       </c>
       <c r="D12">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>1.5699999999999998</v>
       </c>
       <c r="E12">
-        <f>IF(OR(D12&lt;$G$5, D12&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2273,11 +2412,11 @@
         <v>2.95</v>
       </c>
       <c r="D13">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>1.0700000000000003</v>
       </c>
       <c r="E13">
-        <f>IF(OR(D13&lt;$G$5, D13&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2292,11 +2431,11 @@
         <v>6.88</v>
       </c>
       <c r="D14">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>4.87</v>
       </c>
       <c r="E14">
-        <f>IF(OR(D14&lt;$G$5, D14&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2311,11 +2450,11 @@
         <v>2.83</v>
       </c>
       <c r="D15">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
       <c r="E15">
-        <f>IF(OR(D15&lt;$G$5, D15&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,11 +2469,11 @@
         <v>4.05</v>
       </c>
       <c r="D16">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>1.9299999999999997</v>
       </c>
       <c r="E16">
-        <f>IF(OR(D16&lt;$G$5, D16&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2349,11 +2488,11 @@
         <v>7.97</v>
       </c>
       <c r="D17">
-        <f>C17-B17</f>
+        <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
       <c r="E17">
-        <f>IF(OR(D17&lt;$G$5, D17&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2368,11 +2507,11 @@
         <v>4.66</v>
       </c>
       <c r="D18">
-        <f>C18-B18</f>
+        <f t="shared" si="0"/>
         <v>2.44</v>
       </c>
       <c r="E18">
-        <f>IF(OR(D18&lt;$G$5, D18&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2387,11 +2526,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D19">
-        <f>C19-B19</f>
+        <f t="shared" si="0"/>
         <v>2.3599999999999994</v>
       </c>
       <c r="E19">
-        <f>IF(OR(D19&lt;$G$5, D19&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2406,11 +2545,11 @@
         <v>4.83</v>
       </c>
       <c r="D20">
-        <f>C20-B20</f>
+        <f t="shared" si="0"/>
         <v>2.5700000000000003</v>
       </c>
       <c r="E20">
-        <f>IF(OR(D20&lt;$G$5, D20&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2425,11 +2564,11 @@
         <v>3.84</v>
       </c>
       <c r="D21">
-        <f>C21-B21</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="E21">
-        <f>IF(OR(D21&lt;$G$5, D21&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2444,11 +2583,11 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="D22">
-        <f>C22-B22</f>
+        <f t="shared" si="0"/>
         <v>2.4199999999999995</v>
       </c>
       <c r="E22">
-        <f>IF(OR(D22&lt;$G$5, D22&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2463,11 +2602,11 @@
         <v>3.91</v>
       </c>
       <c r="D23">
-        <f>C23-B23</f>
+        <f t="shared" si="0"/>
         <v>1.2800000000000002</v>
       </c>
       <c r="E23">
-        <f>IF(OR(D23&lt;$G$5, D23&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2482,11 +2621,11 @@
         <v>3.56</v>
       </c>
       <c r="D24">
-        <f>C24-B24</f>
+        <f t="shared" si="0"/>
         <v>0.81999999999999984</v>
       </c>
       <c r="E24">
-        <f>IF(OR(D24&lt;$G$5, D24&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2501,11 +2640,11 @@
         <v>3.48</v>
       </c>
       <c r="D25">
-        <f>C25-B25</f>
+        <f t="shared" si="0"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="E25">
-        <f>IF(OR(D25&lt;$G$5, D25&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2520,11 +2659,11 @@
         <v>3.55</v>
       </c>
       <c r="D26">
-        <f>C26-B26</f>
+        <f t="shared" si="0"/>
         <v>0.67999999999999972</v>
       </c>
       <c r="E26">
-        <f>IF(OR(D26&lt;$G$5, D26&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2539,11 +2678,11 @@
         <v>4.51</v>
       </c>
       <c r="D27">
-        <f>C27-B27</f>
+        <f t="shared" si="0"/>
         <v>1.5699999999999998</v>
       </c>
       <c r="E27">
-        <f>IF(OR(D27&lt;$G$5, D27&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2558,11 +2697,11 @@
         <v>4.45</v>
       </c>
       <c r="D28">
-        <f>C28-B28</f>
+        <f t="shared" si="0"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="E28">
-        <f>IF(OR(D28&lt;$G$5, D28&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2577,11 +2716,11 @@
         <v>3.41</v>
       </c>
       <c r="D29">
-        <f>C29-B29</f>
+        <f t="shared" si="0"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="E29">
-        <f>IF(OR(D29&lt;$G$5, D29&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2596,11 +2735,11 @@
         <v>3.73</v>
       </c>
       <c r="D30">
-        <f>C30-B30</f>
+        <f t="shared" si="0"/>
         <v>0.73</v>
       </c>
       <c r="E30">
-        <f>IF(OR(D30&lt;$G$5, D30&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2615,11 +2754,11 @@
         <v>3.58</v>
       </c>
       <c r="D31">
-        <f>C31-B31</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E31">
-        <f>IF(OR(D31&lt;$G$5, D31&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2634,11 +2773,11 @@
         <v>3.91</v>
       </c>
       <c r="D32">
-        <f>C32-B32</f>
+        <f t="shared" si="0"/>
         <v>0.86000000000000032</v>
       </c>
       <c r="E32">
-        <f>IF(OR(D32&lt;$G$5, D32&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2653,11 +2792,11 @@
         <v>6.92</v>
       </c>
       <c r="D33">
-        <f>C33-B33</f>
+        <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
       <c r="E33">
-        <f>IF(OR(D33&lt;$G$5, D33&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2672,11 +2811,11 @@
         <v>5.94</v>
       </c>
       <c r="D34">
-        <f>C34-B34</f>
+        <f t="shared" si="0"/>
         <v>2.6200000000000006</v>
       </c>
       <c r="E34">
-        <f>IF(OR(D34&lt;$G$5, D34&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2691,11 +2830,11 @@
         <v>5.94</v>
       </c>
       <c r="D35">
-        <f>C35-B35</f>
+        <f t="shared" si="0"/>
         <v>2.6200000000000006</v>
       </c>
       <c r="E35">
-        <f>IF(OR(D35&lt;$G$5, D35&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2710,11 +2849,11 @@
         <v>3.68</v>
       </c>
       <c r="D36">
-        <f>C36-B36</f>
+        <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="E36">
-        <f>IF(OR(D36&lt;$G$5, D36&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2729,11 +2868,11 @@
         <v>5.48</v>
       </c>
       <c r="D37">
-        <f>C37-B37</f>
+        <f t="shared" si="0"/>
         <v>2.0400000000000005</v>
       </c>
       <c r="E37">
-        <f>IF(OR(D37&lt;$G$5, D37&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2748,11 +2887,11 @@
         <v>4.51</v>
       </c>
       <c r="D38">
-        <f>C38-B38</f>
+        <f t="shared" si="0"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="E38">
-        <f>IF(OR(D38&lt;$G$5, D38&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2767,11 +2906,11 @@
         <v>7.68</v>
       </c>
       <c r="D39">
-        <f>C39-B39</f>
+        <f t="shared" si="0"/>
         <v>3.9599999999999995</v>
       </c>
       <c r="E39">
-        <f>IF(OR(D39&lt;$G$5, D39&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2786,11 +2925,11 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="D40">
-        <f>C40-B40</f>
+        <f t="shared" si="0"/>
         <v>0.37000000000000011</v>
       </c>
       <c r="E40">
-        <f>IF(OR(D40&lt;$G$5, D40&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2805,11 +2944,11 @@
         <v>4.12</v>
       </c>
       <c r="D41">
-        <f>C41-B41</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000025</v>
       </c>
       <c r="E41">
-        <f>IF(OR(D41&lt;$G$5, D41&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2824,11 +2963,11 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="D42">
-        <f>C42-B42</f>
+        <f t="shared" si="0"/>
         <v>0.54000000000000048</v>
       </c>
       <c r="E42">
-        <f>IF(OR(D42&lt;$G$5, D42&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2843,11 +2982,11 @@
         <v>6.28</v>
       </c>
       <c r="D43">
-        <f>C43-B43</f>
+        <f t="shared" si="0"/>
         <v>2.2300000000000004</v>
       </c>
       <c r="E43">
-        <f>IF(OR(D43&lt;$G$5, D43&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2862,11 +3001,11 @@
         <v>7.99</v>
       </c>
       <c r="D44">
-        <f>C44-B44</f>
+        <f t="shared" si="0"/>
         <v>3.79</v>
       </c>
       <c r="E44">
-        <f>IF(OR(D44&lt;$G$5, D44&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2881,11 +3020,11 @@
         <v>4.7</v>
       </c>
       <c r="D45">
-        <f>C45-B45</f>
+        <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="E45">
-        <f>IF(OR(D45&lt;$G$5, D45&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2900,11 +3039,11 @@
         <v>4.29</v>
       </c>
       <c r="D46">
-        <f>C46-B46</f>
+        <f t="shared" si="0"/>
         <v>-0.17999999999999972</v>
       </c>
       <c r="E46">
-        <f>IF(OR(D46&lt;$G$5, D46&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2919,11 +3058,11 @@
         <v>3.56</v>
       </c>
       <c r="D47">
-        <f>C47-B47</f>
+        <f t="shared" si="0"/>
         <v>-0.95999999999999952</v>
       </c>
       <c r="E47">
-        <f>IF(OR(D47&lt;$G$5, D47&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2938,11 +3077,11 @@
         <v>4.16</v>
       </c>
       <c r="D48">
-        <f>C48-B48</f>
+        <f t="shared" si="0"/>
         <v>-0.41999999999999993</v>
       </c>
       <c r="E48">
-        <f>IF(OR(D48&lt;$G$5, D48&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2957,11 +3096,11 @@
         <v>4.07</v>
       </c>
       <c r="D49">
-        <f>C49-B49</f>
+        <f t="shared" si="0"/>
         <v>-0.58999999999999986</v>
       </c>
       <c r="E49">
-        <f>IF(OR(D49&lt;$G$5, D49&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2976,11 +3115,11 @@
         <v>7.56</v>
       </c>
       <c r="D50">
-        <f>C50-B50</f>
+        <f t="shared" si="0"/>
         <v>2.5099999999999998</v>
       </c>
       <c r="E50">
-        <f>IF(OR(D50&lt;$G$5, D50&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2995,11 +3134,11 @@
         <v>5.64</v>
       </c>
       <c r="D51">
-        <f>C51-B51</f>
+        <f t="shared" si="0"/>
         <v>0.47999999999999954</v>
       </c>
       <c r="E51">
-        <f>IF(OR(D51&lt;$G$5, D51&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3014,11 +3153,11 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D52">
-        <f>C52-B52</f>
+        <f t="shared" si="0"/>
         <v>3.0299999999999994</v>
       </c>
       <c r="E52">
-        <f>IF(OR(D52&lt;$G$5, D52&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3033,11 +3172,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D53">
-        <f>C53-B53</f>
+        <f t="shared" si="0"/>
         <v>-0.89000000000000057</v>
       </c>
       <c r="E53">
-        <f>IF(OR(D53&lt;$G$5, D53&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3052,11 +3191,11 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="D54">
-        <f>C54-B54</f>
+        <f t="shared" si="0"/>
         <v>-1.42</v>
       </c>
       <c r="E54">
-        <f>IF(OR(D54&lt;$G$5, D54&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3071,11 +3210,11 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="D55">
-        <f>C55-B55</f>
+        <f t="shared" si="0"/>
         <v>2.7300000000000004</v>
       </c>
       <c r="E55">
-        <f>IF(OR(D55&lt;$G$5, D55&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3090,11 +3229,11 @@
         <v>8.1</v>
       </c>
       <c r="D56">
-        <f>C56-B56</f>
+        <f t="shared" si="0"/>
         <v>2.3899999999999997</v>
       </c>
       <c r="E56">
-        <f>IF(OR(D56&lt;$G$5, D56&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3109,11 +3248,11 @@
         <v>6.05</v>
       </c>
       <c r="D57">
-        <f>C57-B57</f>
+        <f t="shared" si="0"/>
         <v>0.25999999999999979</v>
       </c>
       <c r="E57">
-        <f>IF(OR(D57&lt;$G$5, D57&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3128,11 +3267,11 @@
         <v>9.14</v>
       </c>
       <c r="D58">
-        <f>C58-B58</f>
+        <f t="shared" si="0"/>
         <v>3.3200000000000003</v>
       </c>
       <c r="E58">
-        <f>IF(OR(D58&lt;$G$5, D58&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3147,11 +3286,11 @@
         <v>6.83</v>
       </c>
       <c r="D59">
-        <f>C59-B59</f>
+        <f t="shared" si="0"/>
         <v>0.98000000000000043</v>
       </c>
       <c r="E59">
-        <f>IF(OR(D59&lt;$G$5, D59&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3166,11 +3305,11 @@
         <v>4.17</v>
       </c>
       <c r="D60">
-        <f>C60-B60</f>
+        <f t="shared" si="0"/>
         <v>-1.7000000000000002</v>
       </c>
       <c r="E60">
-        <f>IF(OR(D60&lt;$G$5, D60&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3185,11 +3324,11 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D61">
-        <f>C61-B61</f>
+        <f t="shared" si="0"/>
         <v>2.330000000000001</v>
       </c>
       <c r="E61">
-        <f>IF(OR(D61&lt;$G$5, D61&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3204,11 +3343,11 @@
         <v>5.28</v>
       </c>
       <c r="D62">
-        <f>C62-B62</f>
+        <f t="shared" si="0"/>
         <v>-0.70000000000000018</v>
       </c>
       <c r="E62">
-        <f>IF(OR(D62&lt;$G$5, D62&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3223,11 +3362,11 @@
         <v>5.18</v>
       </c>
       <c r="D63">
-        <f>C63-B63</f>
+        <f t="shared" si="0"/>
         <v>-0.82000000000000028</v>
       </c>
       <c r="E63">
-        <f>IF(OR(D63&lt;$G$5, D63&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3242,11 +3381,11 @@
         <v>7.25</v>
       </c>
       <c r="D64">
-        <f>C64-B64</f>
+        <f t="shared" si="0"/>
         <v>1.2199999999999998</v>
       </c>
       <c r="E64">
-        <f>IF(OR(D64&lt;$G$5, D64&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3261,11 +3400,11 @@
         <v>8.32</v>
       </c>
       <c r="D65">
-        <f>C65-B65</f>
+        <f t="shared" si="0"/>
         <v>2.2600000000000007</v>
       </c>
       <c r="E65">
-        <f>IF(OR(D65&lt;$G$5, D65&gt;$G$6),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3280,11 +3419,11 @@
         <v>9.16</v>
       </c>
       <c r="D66">
-        <f>C66-B66</f>
+        <f t="shared" ref="D66:D129" si="2">C66-B66</f>
         <v>2.9699999999999998</v>
       </c>
       <c r="E66">
-        <f>IF(OR(D66&lt;$G$5, D66&gt;$G$6),1,0)</f>
+        <f t="shared" ref="E66:E129" si="3">IF(OR(D66&lt;$G$5, D66&gt;$G$6),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3299,11 +3438,11 @@
         <v>8.69</v>
       </c>
       <c r="D67">
-        <f>C67-B67</f>
+        <f t="shared" si="2"/>
         <v>2.2899999999999991</v>
       </c>
       <c r="E67">
-        <f>IF(OR(D67&lt;$G$5, D67&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3318,11 +3457,11 @@
         <v>6.94</v>
       </c>
       <c r="D68">
-        <f>C68-B68</f>
+        <f t="shared" si="2"/>
         <v>0.35000000000000053</v>
       </c>
       <c r="E68">
-        <f>IF(OR(D68&lt;$G$5, D68&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3337,11 +3476,11 @@
         <v>7.41</v>
       </c>
       <c r="D69">
-        <f>C69-B69</f>
+        <f t="shared" si="2"/>
         <v>0.69000000000000039</v>
       </c>
       <c r="E69">
-        <f>IF(OR(D69&lt;$G$5, D69&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3356,11 +3495,11 @@
         <v>7.57</v>
       </c>
       <c r="D70">
-        <f>C70-B70</f>
+        <f t="shared" si="2"/>
         <v>0.78000000000000025</v>
       </c>
       <c r="E70">
-        <f>IF(OR(D70&lt;$G$5, D70&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3375,11 +3514,11 @@
         <v>6.9</v>
       </c>
       <c r="D71">
-        <f>C71-B71</f>
+        <f t="shared" si="2"/>
         <v>0.10000000000000053</v>
       </c>
       <c r="E71">
-        <f>IF(OR(D71&lt;$G$5, D71&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3394,11 +3533,11 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="D72">
-        <f>C72-B72</f>
+        <f t="shared" si="2"/>
         <v>1.410000000000001</v>
       </c>
       <c r="E72">
-        <f>IF(OR(D72&lt;$G$5, D72&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3413,11 +3552,11 @@
         <v>12.05</v>
       </c>
       <c r="D73">
-        <f>C73-B73</f>
+        <f t="shared" si="2"/>
         <v>4.9800000000000004</v>
       </c>
       <c r="E73">
-        <f>IF(OR(D73&lt;$G$5, D73&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3432,11 +3571,11 @@
         <v>7.54</v>
       </c>
       <c r="D74">
-        <f>C74-B74</f>
+        <f t="shared" si="2"/>
         <v>0.37000000000000011</v>
       </c>
       <c r="E74">
-        <f>IF(OR(D74&lt;$G$5, D74&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3451,11 +3590,11 @@
         <v>8.85</v>
       </c>
       <c r="D75">
-        <f>C75-B75</f>
+        <f t="shared" si="2"/>
         <v>1.6499999999999995</v>
       </c>
       <c r="E75">
-        <f>IF(OR(D75&lt;$G$5, D75&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3470,11 +3609,11 @@
         <v>7.35</v>
       </c>
       <c r="D76">
-        <f>C76-B76</f>
+        <f t="shared" si="2"/>
         <v>0.10999999999999943</v>
       </c>
       <c r="E76">
-        <f>IF(OR(D76&lt;$G$5, D76&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3489,11 +3628,11 @@
         <v>7.76</v>
       </c>
       <c r="D77">
-        <f>C77-B77</f>
+        <f t="shared" si="2"/>
         <v>0.50999999999999979</v>
       </c>
       <c r="E77">
-        <f>IF(OR(D77&lt;$G$5, D77&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3508,11 +3647,11 @@
         <v>9.86</v>
       </c>
       <c r="D78">
-        <f>C78-B78</f>
+        <f t="shared" si="2"/>
         <v>2.4799999999999995</v>
       </c>
       <c r="E78">
-        <f>IF(OR(D78&lt;$G$5, D78&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3527,11 +3666,11 @@
         <v>8.31</v>
       </c>
       <c r="D79">
-        <f>C79-B79</f>
+        <f t="shared" si="2"/>
         <v>0.78000000000000025</v>
       </c>
       <c r="E79">
-        <f>IF(OR(D79&lt;$G$5, D79&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3546,11 +3685,11 @@
         <v>7.96</v>
       </c>
       <c r="D80">
-        <f>C80-B80</f>
+        <f t="shared" si="2"/>
         <v>0.38999999999999968</v>
       </c>
       <c r="E80">
-        <f>IF(OR(D80&lt;$G$5, D80&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3565,11 +3704,11 @@
         <v>9.33</v>
       </c>
       <c r="D81">
-        <f>C81-B81</f>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="E81">
-        <f>IF(OR(D81&lt;$G$5, D81&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3584,11 +3723,11 @@
         <v>8.35</v>
       </c>
       <c r="D82">
-        <f>C82-B82</f>
+        <f t="shared" si="2"/>
         <v>0.75999999999999979</v>
       </c>
       <c r="E82">
-        <f>IF(OR(D82&lt;$G$5, D82&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3603,11 +3742,11 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="D83">
-        <f>C83-B83</f>
+        <f t="shared" si="2"/>
         <v>0.67999999999999972</v>
       </c>
       <c r="E83">
-        <f>IF(OR(D83&lt;$G$5, D83&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3622,11 +3761,11 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="D84">
-        <f>C84-B84</f>
+        <f t="shared" si="2"/>
         <v>0.37000000000000099</v>
       </c>
       <c r="E84">
-        <f>IF(OR(D84&lt;$G$5, D84&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3641,11 +3780,11 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="D85">
-        <f>C85-B85</f>
+        <f t="shared" si="2"/>
         <v>0.73999999999999932</v>
       </c>
       <c r="E85">
-        <f>IF(OR(D85&lt;$G$5, D85&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3660,11 +3799,11 @@
         <v>7.34</v>
       </c>
       <c r="D86">
-        <f>C86-B86</f>
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
       <c r="E86">
-        <f>IF(OR(D86&lt;$G$5, D86&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3679,11 +3818,11 @@
         <v>14.3</v>
       </c>
       <c r="D87">
-        <f>C87-B87</f>
+        <f t="shared" si="2"/>
         <v>6.23</v>
       </c>
       <c r="E87">
-        <f>IF(OR(D87&lt;$G$5, D87&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3698,11 +3837,11 @@
         <v>8.39</v>
       </c>
       <c r="D88">
-        <f>C88-B88</f>
+        <f t="shared" si="2"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="E88">
-        <f>IF(OR(D88&lt;$G$5, D88&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3717,11 +3856,11 @@
         <v>9.48</v>
       </c>
       <c r="D89">
-        <f>C89-B89</f>
+        <f t="shared" si="2"/>
         <v>1.1900000000000013</v>
       </c>
       <c r="E89">
-        <f>IF(OR(D89&lt;$G$5, D89&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3736,11 +3875,11 @@
         <v>11.12</v>
       </c>
       <c r="D90">
-        <f>C90-B90</f>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
       <c r="E90">
-        <f>IF(OR(D90&lt;$G$5, D90&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3755,11 +3894,11 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D91">
-        <f>C91-B91</f>
+        <f t="shared" si="2"/>
         <v>0.41999999999999993</v>
       </c>
       <c r="E91">
-        <f>IF(OR(D91&lt;$G$5, D91&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3774,11 +3913,11 @@
         <v>11.73</v>
       </c>
       <c r="D92">
-        <f>C92-B92</f>
+        <f t="shared" si="2"/>
         <v>3.3100000000000005</v>
       </c>
       <c r="E92">
-        <f>IF(OR(D92&lt;$G$5, D92&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3793,11 +3932,11 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="D93">
-        <f>C93-B93</f>
+        <f t="shared" si="2"/>
         <v>-0.35999999999999943</v>
       </c>
       <c r="E93">
-        <f>IF(OR(D93&lt;$G$5, D93&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3812,11 +3951,11 @@
         <v>7.77</v>
       </c>
       <c r="D94">
-        <f>C94-B94</f>
+        <f t="shared" si="2"/>
         <v>-0.76999999999999957</v>
       </c>
       <c r="E94">
-        <f>IF(OR(D94&lt;$G$5, D94&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3831,11 +3970,11 @@
         <v>9.19</v>
       </c>
       <c r="D95">
-        <f>C95-B95</f>
+        <f t="shared" si="2"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="E95">
-        <f>IF(OR(D95&lt;$G$5, D95&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3850,11 +3989,11 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="D96">
-        <f>C96-B96</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000001563E-2</v>
       </c>
       <c r="E96">
-        <f>IF(OR(D96&lt;$G$5, D96&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3869,11 +4008,11 @@
         <v>10.93</v>
       </c>
       <c r="D97">
-        <f>C97-B97</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="E97">
-        <f>IF(OR(D97&lt;$G$5, D97&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3888,11 +4027,11 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="D98">
-        <f>C98-B98</f>
+        <f t="shared" si="2"/>
         <v>0.54000000000000092</v>
       </c>
       <c r="E98">
-        <f>IF(OR(D98&lt;$G$5, D98&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3907,11 +4046,11 @@
         <v>8.73</v>
       </c>
       <c r="D99">
-        <f>C99-B99</f>
+        <f t="shared" si="2"/>
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="E99">
-        <f>IF(OR(D99&lt;$G$5, D99&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3926,11 +4065,11 @@
         <v>8.06</v>
       </c>
       <c r="D100">
-        <f>C100-B100</f>
+        <f t="shared" si="2"/>
         <v>-0.66000000000000014</v>
       </c>
       <c r="E100">
-        <f>IF(OR(D100&lt;$G$5, D100&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3945,11 +4084,11 @@
         <v>9.14</v>
       </c>
       <c r="D101">
-        <f>C101-B101</f>
+        <f t="shared" si="2"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="E101">
-        <f>IF(OR(D101&lt;$G$5, D101&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3964,11 +4103,11 @@
         <v>7.45</v>
       </c>
       <c r="D102">
-        <f>C102-B102</f>
+        <f t="shared" si="2"/>
         <v>-1.2800000000000002</v>
       </c>
       <c r="E102">
-        <f>IF(OR(D102&lt;$G$5, D102&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3983,11 +4122,11 @@
         <v>8.91</v>
       </c>
       <c r="D103">
-        <f>C103-B103</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000924E-2</v>
       </c>
       <c r="E103">
-        <f>IF(OR(D103&lt;$G$5, D103&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4002,11 +4141,11 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="D104">
-        <f>C104-B104</f>
+        <f t="shared" si="2"/>
         <v>0.73000000000000043</v>
       </c>
       <c r="E104">
-        <f>IF(OR(D104&lt;$G$5, D104&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4021,11 +4160,11 @@
         <v>9.42</v>
       </c>
       <c r="D105">
-        <f>C105-B105</f>
+        <f t="shared" si="2"/>
         <v>0.50999999999999979</v>
       </c>
       <c r="E105">
-        <f>IF(OR(D105&lt;$G$5, D105&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4040,11 +4179,11 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="D106">
-        <f>C106-B106</f>
+        <f t="shared" si="2"/>
         <v>0.52000000000000135</v>
       </c>
       <c r="E106">
-        <f>IF(OR(D106&lt;$G$5, D106&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4059,11 +4198,11 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="D107">
-        <f>C107-B107</f>
+        <f t="shared" si="2"/>
         <v>-0.41000000000000014</v>
       </c>
       <c r="E107">
-        <f>IF(OR(D107&lt;$G$5, D107&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4078,11 +4217,11 @@
         <v>14.24</v>
       </c>
       <c r="D108">
-        <f>C108-B108</f>
+        <f t="shared" si="2"/>
         <v>5.18</v>
       </c>
       <c r="E108">
-        <f>IF(OR(D108&lt;$G$5, D108&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4097,11 +4236,11 @@
         <v>9.67</v>
       </c>
       <c r="D109">
-        <f>C109-B109</f>
+        <f t="shared" si="2"/>
         <v>0.53999999999999915</v>
       </c>
       <c r="E109">
-        <f>IF(OR(D109&lt;$G$5, D109&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4116,11 +4255,11 @@
         <v>9.44</v>
       </c>
       <c r="D110">
-        <f>C110-B110</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="E110">
-        <f>IF(OR(D110&lt;$G$5, D110&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4135,11 +4274,11 @@
         <v>9.67</v>
       </c>
       <c r="D111">
-        <f>C111-B111</f>
+        <f t="shared" si="2"/>
         <v>0.4399999999999995</v>
       </c>
       <c r="E111">
-        <f>IF(OR(D111&lt;$G$5, D111&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4154,11 +4293,11 @@
         <v>10.81</v>
       </c>
       <c r="D112">
-        <f>C112-B112</f>
+        <f t="shared" si="2"/>
         <v>1.5500000000000007</v>
       </c>
       <c r="E112">
-        <f>IF(OR(D112&lt;$G$5, D112&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4173,11 +4312,11 @@
         <v>8.09</v>
       </c>
       <c r="D113">
-        <f>C113-B113</f>
+        <f t="shared" si="2"/>
         <v>-1.25</v>
       </c>
       <c r="E113">
-        <f>IF(OR(D113&lt;$G$5, D113&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4192,11 +4331,11 @@
         <v>9.48</v>
       </c>
       <c r="D114">
-        <f>C114-B114</f>
+        <f t="shared" si="2"/>
         <v>0.11000000000000121</v>
       </c>
       <c r="E114">
-        <f>IF(OR(D114&lt;$G$5, D114&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4211,11 +4350,11 @@
         <v>9.83</v>
       </c>
       <c r="D115">
-        <f>C115-B115</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999929</v>
       </c>
       <c r="E115">
-        <f>IF(OR(D115&lt;$G$5, D115&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4230,11 +4369,11 @@
         <v>10.35</v>
       </c>
       <c r="D116">
-        <f>C116-B116</f>
+        <f t="shared" si="2"/>
         <v>0.95999999999999908</v>
       </c>
       <c r="E116">
-        <f>IF(OR(D116&lt;$G$5, D116&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4249,11 +4388,11 @@
         <v>9.34</v>
       </c>
       <c r="D117">
-        <f>C117-B117</f>
+        <f t="shared" si="2"/>
         <v>-8.9999999999999858E-2</v>
       </c>
       <c r="E117">
-        <f>IF(OR(D117&lt;$G$5, D117&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4268,11 +4407,11 @@
         <v>10.9</v>
       </c>
       <c r="D118">
-        <f>C118-B118</f>
+        <f t="shared" si="2"/>
         <v>1.4399999999999995</v>
       </c>
       <c r="E118">
-        <f>IF(OR(D118&lt;$G$5, D118&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4287,11 +4426,11 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="D119">
-        <f>C119-B119</f>
+        <f t="shared" si="2"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="E119">
-        <f>IF(OR(D119&lt;$G$5, D119&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4306,11 +4445,11 @@
         <v>10.02</v>
       </c>
       <c r="D120">
-        <f>C120-B120</f>
+        <f t="shared" si="2"/>
         <v>0.46999999999999886</v>
       </c>
       <c r="E120">
-        <f>IF(OR(D120&lt;$G$5, D120&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4325,11 +4464,11 @@
         <v>9.94</v>
       </c>
       <c r="D121">
-        <f>C121-B121</f>
+        <f t="shared" si="2"/>
         <v>0.36999999999999922</v>
       </c>
       <c r="E121">
-        <f>IF(OR(D121&lt;$G$5, D121&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4344,11 +4483,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D122">
-        <f>C122-B122</f>
+        <f t="shared" si="2"/>
         <v>0.54999999999999893</v>
       </c>
       <c r="E122">
-        <f>IF(OR(D122&lt;$G$5, D122&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4363,11 +4502,11 @@
         <v>12.06</v>
       </c>
       <c r="D123">
-        <f>C123-B123</f>
+        <f t="shared" si="2"/>
         <v>2.2700000000000014</v>
       </c>
       <c r="E123">
-        <f>IF(OR(D123&lt;$G$5, D123&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4382,11 +4521,11 @@
         <v>9.92</v>
       </c>
       <c r="D124">
-        <f>C124-B124</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="E124">
-        <f>IF(OR(D124&lt;$G$5, D124&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4401,11 +4540,11 @@
         <v>10.41</v>
       </c>
       <c r="D125">
-        <f>C125-B125</f>
+        <f t="shared" si="2"/>
         <v>0.33999999999999986</v>
       </c>
       <c r="E125">
-        <f>IF(OR(D125&lt;$G$5, D125&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4420,11 +4559,11 @@
         <v>10.71</v>
       </c>
       <c r="D126">
-        <f>C126-B126</f>
+        <f t="shared" si="2"/>
         <v>0.59000000000000163</v>
       </c>
       <c r="E126">
-        <f>IF(OR(D126&lt;$G$5, D126&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4439,11 +4578,11 @@
         <v>7.53</v>
       </c>
       <c r="D127">
-        <f>C127-B127</f>
+        <f t="shared" si="2"/>
         <v>-2.6100000000000003</v>
       </c>
       <c r="E127">
-        <f>IF(OR(D127&lt;$G$5, D127&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4458,11 +4597,11 @@
         <v>11.17</v>
       </c>
       <c r="D128">
-        <f>C128-B128</f>
+        <f t="shared" si="2"/>
         <v>0.99000000000000021</v>
       </c>
       <c r="E128">
-        <f>IF(OR(D128&lt;$G$5, D128&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4477,11 +4616,11 @@
         <v>10.46</v>
       </c>
       <c r="D129">
-        <f>C129-B129</f>
+        <f t="shared" si="2"/>
         <v>0.28000000000000114</v>
       </c>
       <c r="E129">
-        <f>IF(OR(D129&lt;$G$5, D129&gt;$G$6),1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4496,11 +4635,11 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="D130">
-        <f>C130-B130</f>
+        <f t="shared" ref="D130:D193" si="4">C130-B130</f>
         <v>-0.43000000000000149</v>
       </c>
       <c r="E130">
-        <f>IF(OR(D130&lt;$G$5, D130&gt;$G$6),1,0)</f>
+        <f t="shared" ref="E130:E193" si="5">IF(OR(D130&lt;$G$5, D130&gt;$G$6),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4515,11 +4654,11 @@
         <v>9.64</v>
       </c>
       <c r="D131">
-        <f>C131-B131</f>
+        <f t="shared" si="4"/>
         <v>-0.67999999999999972</v>
       </c>
       <c r="E131">
-        <f>IF(OR(D131&lt;$G$5, D131&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4534,11 +4673,11 @@
         <v>11.23</v>
       </c>
       <c r="D132">
-        <f>C132-B132</f>
+        <f t="shared" si="4"/>
         <v>0.71000000000000085</v>
       </c>
       <c r="E132">
-        <f>IF(OR(D132&lt;$G$5, D132&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4553,11 +4692,11 @@
         <v>13.04</v>
       </c>
       <c r="D133">
-        <f>C133-B133</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="E133">
-        <f>IF(OR(D133&lt;$G$5, D133&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4572,11 +4711,11 @@
         <v>11.06</v>
       </c>
       <c r="D134">
-        <f>C134-B134</f>
+        <f t="shared" si="4"/>
         <v>0.48000000000000043</v>
       </c>
       <c r="E134">
-        <f>IF(OR(D134&lt;$G$5, D134&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4591,11 +4730,11 @@
         <v>12.84</v>
       </c>
       <c r="D135">
-        <f>C135-B135</f>
+        <f t="shared" si="4"/>
         <v>2.0700000000000003</v>
       </c>
       <c r="E135">
-        <f>IF(OR(D135&lt;$G$5, D135&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4610,11 +4749,11 @@
         <v>12.16</v>
       </c>
       <c r="D136">
-        <f>C136-B136</f>
+        <f t="shared" si="4"/>
         <v>1.3800000000000008</v>
       </c>
       <c r="E136">
-        <f>IF(OR(D136&lt;$G$5, D136&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4629,11 +4768,11 @@
         <v>11.65</v>
       </c>
       <c r="D137">
-        <f>C137-B137</f>
+        <f t="shared" si="4"/>
         <v>0.87000000000000099</v>
       </c>
       <c r="E137">
-        <f>IF(OR(D137&lt;$G$5, D137&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4648,11 +4787,11 @@
         <v>11.23</v>
       </c>
       <c r="D138">
-        <f>C138-B138</f>
+        <f t="shared" si="4"/>
         <v>0.41999999999999993</v>
       </c>
       <c r="E138">
-        <f>IF(OR(D138&lt;$G$5, D138&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4667,11 +4806,11 @@
         <v>10.34</v>
       </c>
       <c r="D139">
-        <f>C139-B139</f>
+        <f t="shared" si="4"/>
         <v>-0.48000000000000043</v>
       </c>
       <c r="E139">
-        <f>IF(OR(D139&lt;$G$5, D139&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4686,11 +4825,11 @@
         <v>10.6</v>
       </c>
       <c r="D140">
-        <f>C140-B140</f>
+        <f t="shared" si="4"/>
         <v>-0.29000000000000092</v>
       </c>
       <c r="E140">
-        <f>IF(OR(D140&lt;$G$5, D140&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4705,11 +4844,11 @@
         <v>7.04</v>
       </c>
       <c r="D141">
-        <f>C141-B141</f>
+        <f t="shared" si="4"/>
         <v>-3.96</v>
       </c>
       <c r="E141">
-        <f>IF(OR(D141&lt;$G$5, D141&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4724,11 +4863,11 @@
         <v>10.25</v>
       </c>
       <c r="D142">
-        <f>C142-B142</f>
+        <f t="shared" si="4"/>
         <v>-0.80000000000000071</v>
       </c>
       <c r="E142">
-        <f>IF(OR(D142&lt;$G$5, D142&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4743,11 +4882,11 @@
         <v>11.6</v>
       </c>
       <c r="D143">
-        <f>C143-B143</f>
+        <f t="shared" si="4"/>
         <v>0.50999999999999979</v>
       </c>
       <c r="E143">
-        <f>IF(OR(D143&lt;$G$5, D143&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4762,11 +4901,11 @@
         <v>10.78</v>
       </c>
       <c r="D144">
-        <f>C144-B144</f>
+        <f t="shared" si="4"/>
         <v>-0.33999999999999986</v>
       </c>
       <c r="E144">
-        <f>IF(OR(D144&lt;$G$5, D144&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4781,11 +4920,11 @@
         <v>10.7</v>
       </c>
       <c r="D145">
-        <f>C145-B145</f>
+        <f t="shared" si="4"/>
         <v>-0.49000000000000021</v>
       </c>
       <c r="E145">
-        <f>IF(OR(D145&lt;$G$5, D145&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4800,11 +4939,11 @@
         <v>10.06</v>
       </c>
       <c r="D146">
-        <f>C146-B146</f>
+        <f t="shared" si="4"/>
         <v>-1.1600000000000001</v>
       </c>
       <c r="E146">
-        <f>IF(OR(D146&lt;$G$5, D146&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4819,11 +4958,11 @@
         <v>11.04</v>
       </c>
       <c r="D147">
-        <f>C147-B147</f>
+        <f t="shared" si="4"/>
         <v>-0.30000000000000071</v>
       </c>
       <c r="E147">
-        <f>IF(OR(D147&lt;$G$5, D147&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4838,11 +4977,11 @@
         <v>11.43</v>
       </c>
       <c r="D148">
-        <f>C148-B148</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="E148">
-        <f>IF(OR(D148&lt;$G$5, D148&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4857,11 +4996,11 @@
         <v>10.43</v>
       </c>
       <c r="D149">
-        <f>C149-B149</f>
+        <f t="shared" si="4"/>
         <v>-0.92999999999999972</v>
       </c>
       <c r="E149">
-        <f>IF(OR(D149&lt;$G$5, D149&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4876,11 +5015,11 @@
         <v>12.35</v>
       </c>
       <c r="D150">
-        <f>C150-B150</f>
+        <f t="shared" si="4"/>
         <v>0.98000000000000043</v>
       </c>
       <c r="E150">
-        <f>IF(OR(D150&lt;$G$5, D150&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4895,11 +5034,11 @@
         <v>11.6</v>
       </c>
       <c r="D151">
-        <f>C151-B151</f>
+        <f t="shared" si="4"/>
         <v>0.16000000000000014</v>
       </c>
       <c r="E151">
-        <f>IF(OR(D151&lt;$G$5, D151&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4914,11 +5053,11 @@
         <v>12.85</v>
       </c>
       <c r="D152">
-        <f>C152-B152</f>
+        <f t="shared" si="4"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="E152">
-        <f>IF(OR(D152&lt;$G$5, D152&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4933,11 +5072,11 @@
         <v>13.28</v>
       </c>
       <c r="D153">
-        <f>C153-B153</f>
+        <f t="shared" si="4"/>
         <v>1.7599999999999998</v>
       </c>
       <c r="E153">
-        <f>IF(OR(D153&lt;$G$5, D153&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4952,11 +5091,11 @@
         <v>12.3</v>
       </c>
       <c r="D154">
-        <f>C154-B154</f>
+        <f t="shared" si="4"/>
         <v>0.71000000000000085</v>
       </c>
       <c r="E154">
-        <f>IF(OR(D154&lt;$G$5, D154&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4971,11 +5110,11 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="D155">
-        <f>C155-B155</f>
+        <f t="shared" si="4"/>
         <v>-1.8600000000000012</v>
       </c>
       <c r="E155">
-        <f>IF(OR(D155&lt;$G$5, D155&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4990,11 +5129,11 @@
         <v>13.58</v>
       </c>
       <c r="D156">
-        <f>C156-B156</f>
+        <f t="shared" si="4"/>
         <v>1.8900000000000006</v>
       </c>
       <c r="E156">
-        <f>IF(OR(D156&lt;$G$5, D156&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,11 +5148,11 @@
         <v>13.64</v>
       </c>
       <c r="D157">
-        <f>C157-B157</f>
+        <f t="shared" si="4"/>
         <v>1.8800000000000008</v>
       </c>
       <c r="E157">
-        <f>IF(OR(D157&lt;$G$5, D157&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5028,11 +5167,11 @@
         <v>13.31</v>
       </c>
       <c r="D158">
-        <f>C158-B158</f>
+        <f t="shared" si="4"/>
         <v>1.4900000000000002</v>
       </c>
       <c r="E158">
-        <f>IF(OR(D158&lt;$G$5, D158&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5047,11 +5186,11 @@
         <v>13.14</v>
       </c>
       <c r="D159">
-        <f>C159-B159</f>
+        <f t="shared" si="4"/>
         <v>1.2300000000000004</v>
       </c>
       <c r="E159">
-        <f>IF(OR(D159&lt;$G$5, D159&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5066,11 +5205,11 @@
         <v>14.17</v>
       </c>
       <c r="D160">
-        <f>C160-B160</f>
+        <f t="shared" si="4"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="E160">
-        <f>IF(OR(D160&lt;$G$5, D160&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5085,11 +5224,11 @@
         <v>14.38</v>
       </c>
       <c r="D161">
-        <f>C161-B161</f>
+        <f t="shared" si="4"/>
         <v>2.370000000000001</v>
       </c>
       <c r="E161">
-        <f>IF(OR(D161&lt;$G$5, D161&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5104,11 +5243,11 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D162">
-        <f>C162-B162</f>
+        <f t="shared" si="4"/>
         <v>-2.3200000000000003</v>
       </c>
       <c r="E162">
-        <f>IF(OR(D162&lt;$G$5, D162&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5123,11 +5262,11 @@
         <v>12.05</v>
       </c>
       <c r="D163">
-        <f>C163-B163</f>
+        <f t="shared" si="4"/>
         <v>-5.9999999999998721E-2</v>
       </c>
       <c r="E163">
-        <f>IF(OR(D163&lt;$G$5, D163&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5142,11 +5281,11 @@
         <v>12.75</v>
       </c>
       <c r="D164">
-        <f>C164-B164</f>
+        <f t="shared" si="4"/>
         <v>0.53999999999999915</v>
       </c>
       <c r="E164">
-        <f>IF(OR(D164&lt;$G$5, D164&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5161,11 +5300,11 @@
         <v>13.7</v>
       </c>
       <c r="D165">
-        <f>C165-B165</f>
+        <f t="shared" si="4"/>
         <v>1.4799999999999986</v>
       </c>
       <c r="E165">
-        <f>IF(OR(D165&lt;$G$5, D165&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5180,11 +5319,11 @@
         <v>12.18</v>
       </c>
       <c r="D166">
-        <f>C166-B166</f>
+        <f t="shared" si="4"/>
         <v>-4.0000000000000924E-2</v>
       </c>
       <c r="E166">
-        <f>IF(OR(D166&lt;$G$5, D166&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5199,11 +5338,11 @@
         <v>14.18</v>
       </c>
       <c r="D167">
-        <f>C167-B167</f>
+        <f t="shared" si="4"/>
         <v>1.879999999999999</v>
       </c>
       <c r="E167">
-        <f>IF(OR(D167&lt;$G$5, D167&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5218,11 +5357,11 @@
         <v>13.45</v>
       </c>
       <c r="D168">
-        <f>C168-B168</f>
+        <f t="shared" si="4"/>
         <v>0.70999999999999908</v>
       </c>
       <c r="E168">
-        <f>IF(OR(D168&lt;$G$5, D168&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5237,11 +5376,11 @@
         <v>12.84</v>
       </c>
       <c r="D169">
-        <f>C169-B169</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="E169">
-        <f>IF(OR(D169&lt;$G$5, D169&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5256,11 +5395,11 @@
         <v>14.58</v>
       </c>
       <c r="D170">
-        <f>C170-B170</f>
+        <f t="shared" si="4"/>
         <v>1.7699999999999996</v>
       </c>
       <c r="E170">
-        <f>IF(OR(D170&lt;$G$5, D170&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5275,11 +5414,11 @@
         <v>14.54</v>
       </c>
       <c r="D171">
-        <f>C171-B171</f>
+        <f t="shared" si="4"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="E171">
-        <f>IF(OR(D171&lt;$G$5, D171&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5294,11 +5433,11 @@
         <v>14.03</v>
       </c>
       <c r="D172">
-        <f>C172-B172</f>
+        <f t="shared" si="4"/>
         <v>1.0699999999999985</v>
       </c>
       <c r="E172">
-        <f>IF(OR(D172&lt;$G$5, D172&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5313,11 +5452,11 @@
         <v>14.26</v>
       </c>
       <c r="D173">
-        <f>C173-B173</f>
+        <f t="shared" si="4"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="E173">
-        <f>IF(OR(D173&lt;$G$5, D173&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5332,11 +5471,11 @@
         <v>13.63</v>
       </c>
       <c r="D174">
-        <f>C174-B174</f>
+        <f t="shared" si="4"/>
         <v>0.57000000000000028</v>
       </c>
       <c r="E174">
-        <f>IF(OR(D174&lt;$G$5, D174&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5351,11 +5490,11 @@
         <v>12.92</v>
       </c>
       <c r="D175">
-        <f>C175-B175</f>
+        <f t="shared" si="4"/>
         <v>-0.21000000000000085</v>
       </c>
       <c r="E175">
-        <f>IF(OR(D175&lt;$G$5, D175&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5370,11 +5509,11 @@
         <v>13.63</v>
       </c>
       <c r="D176">
-        <f>C176-B176</f>
+        <f t="shared" si="4"/>
         <v>0.43000000000000149</v>
       </c>
       <c r="E176">
-        <f>IF(OR(D176&lt;$G$5, D176&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5389,11 +5528,11 @@
         <v>12.02</v>
       </c>
       <c r="D177">
-        <f>C177-B177</f>
+        <f t="shared" si="4"/>
         <v>-1.1900000000000013</v>
       </c>
       <c r="E177">
-        <f>IF(OR(D177&lt;$G$5, D177&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5408,11 +5547,11 @@
         <v>11.48</v>
       </c>
       <c r="D178">
-        <f>C178-B178</f>
+        <f t="shared" si="4"/>
         <v>-1.75</v>
       </c>
       <c r="E178">
-        <f>IF(OR(D178&lt;$G$5, D178&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5427,11 +5566,11 @@
         <v>14.23</v>
       </c>
       <c r="D179">
-        <f>C179-B179</f>
+        <f t="shared" si="4"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="E179">
-        <f>IF(OR(D179&lt;$G$5, D179&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5446,11 +5585,11 @@
         <v>14.23</v>
       </c>
       <c r="D180">
-        <f>C180-B180</f>
+        <f t="shared" si="4"/>
         <v>0.89000000000000057</v>
       </c>
       <c r="E180">
-        <f>IF(OR(D180&lt;$G$5, D180&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5465,11 +5604,11 @@
         <v>12.82</v>
       </c>
       <c r="D181">
-        <f>C181-B181</f>
+        <f t="shared" si="4"/>
         <v>-0.53999999999999915</v>
       </c>
       <c r="E181">
-        <f>IF(OR(D181&lt;$G$5, D181&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5484,11 +5623,11 @@
         <v>11.48</v>
       </c>
       <c r="D182">
-        <f>C182-B182</f>
+        <f t="shared" si="4"/>
         <v>-1.9699999999999989</v>
       </c>
       <c r="E182">
-        <f>IF(OR(D182&lt;$G$5, D182&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5503,11 +5642,11 @@
         <v>12.38</v>
       </c>
       <c r="D183">
-        <f>C183-B183</f>
+        <f t="shared" si="4"/>
         <v>-1.1399999999999988</v>
       </c>
       <c r="E183">
-        <f>IF(OR(D183&lt;$G$5, D183&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5522,11 +5661,11 @@
         <v>14.8</v>
       </c>
       <c r="D184">
-        <f>C184-B184</f>
+        <f t="shared" si="4"/>
         <v>1.2300000000000004</v>
       </c>
       <c r="E184">
-        <f>IF(OR(D184&lt;$G$5, D184&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5541,11 +5680,11 @@
         <v>14.38</v>
       </c>
       <c r="D185">
-        <f>C185-B185</f>
+        <f t="shared" si="4"/>
         <v>0.77000000000000135</v>
       </c>
       <c r="E185">
-        <f>IF(OR(D185&lt;$G$5, D185&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5560,11 +5699,11 @@
         <v>12.22</v>
       </c>
       <c r="D186">
-        <f>C186-B186</f>
+        <f t="shared" si="4"/>
         <v>-1.3899999999999988</v>
       </c>
       <c r="E186">
-        <f>IF(OR(D186&lt;$G$5, D186&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5579,11 +5718,11 @@
         <v>14.19</v>
       </c>
       <c r="D187">
-        <f>C187-B187</f>
+        <f t="shared" si="4"/>
         <v>0.57000000000000028</v>
       </c>
       <c r="E187">
-        <f>IF(OR(D187&lt;$G$5, D187&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5598,11 +5737,11 @@
         <v>13.46</v>
       </c>
       <c r="D188">
-        <f>C188-B188</f>
+        <f t="shared" si="4"/>
         <v>-0.1899999999999995</v>
       </c>
       <c r="E188">
-        <f>IF(OR(D188&lt;$G$5, D188&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5617,11 +5756,11 @@
         <v>14.38</v>
       </c>
       <c r="D189">
-        <f>C189-B189</f>
+        <f t="shared" si="4"/>
         <v>0.69000000000000128</v>
       </c>
       <c r="E189">
-        <f>IF(OR(D189&lt;$G$5, D189&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5636,11 +5775,11 @@
         <v>10.78</v>
       </c>
       <c r="D190">
-        <f>C190-B190</f>
+        <f t="shared" si="4"/>
         <v>-2.9400000000000013</v>
       </c>
       <c r="E190">
-        <f>IF(OR(D190&lt;$G$5, D190&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5655,11 +5794,11 @@
         <v>13.16</v>
       </c>
       <c r="D191">
-        <f>C191-B191</f>
+        <f t="shared" si="4"/>
         <v>-0.60999999999999943</v>
       </c>
       <c r="E191">
-        <f>IF(OR(D191&lt;$G$5, D191&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5674,11 +5813,11 @@
         <v>12.92</v>
       </c>
       <c r="D192">
-        <f>C192-B192</f>
+        <f t="shared" si="4"/>
         <v>-0.94999999999999929</v>
       </c>
       <c r="E192">
-        <f>IF(OR(D192&lt;$G$5, D192&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5693,11 +5832,11 @@
         <v>13.26</v>
       </c>
       <c r="D193">
-        <f>C193-B193</f>
+        <f t="shared" si="4"/>
         <v>-0.62000000000000099</v>
       </c>
       <c r="E193">
-        <f>IF(OR(D193&lt;$G$5, D193&gt;$G$6),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5712,11 +5851,11 @@
         <v>14.88</v>
       </c>
       <c r="D194">
-        <f>C194-B194</f>
+        <f t="shared" ref="D194:D257" si="6">C194-B194</f>
         <v>0.77000000000000135</v>
       </c>
       <c r="E194">
-        <f>IF(OR(D194&lt;$G$5, D194&gt;$G$6),1,0)</f>
+        <f t="shared" ref="E194:E257" si="7">IF(OR(D194&lt;$G$5, D194&gt;$G$6),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5731,11 +5870,11 @@
         <v>12.54</v>
       </c>
       <c r="D195">
-        <f>C195-B195</f>
+        <f t="shared" si="6"/>
         <v>-1.5700000000000003</v>
       </c>
       <c r="E195">
-        <f>IF(OR(D195&lt;$G$5, D195&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5750,11 +5889,11 @@
         <v>10.16</v>
       </c>
       <c r="D196">
-        <f>C196-B196</f>
+        <f t="shared" si="6"/>
         <v>-3.9599999999999991</v>
       </c>
       <c r="E196">
-        <f>IF(OR(D196&lt;$G$5, D196&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5769,11 +5908,11 @@
         <v>14.47</v>
       </c>
       <c r="D197">
-        <f>C197-B197</f>
+        <f t="shared" si="6"/>
         <v>0.18000000000000149</v>
       </c>
       <c r="E197">
-        <f>IF(OR(D197&lt;$G$5, D197&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5788,11 +5927,11 @@
         <v>14.05</v>
       </c>
       <c r="D198">
-        <f>C198-B198</f>
+        <f t="shared" si="6"/>
         <v>-0.26999999999999957</v>
       </c>
       <c r="E198">
-        <f>IF(OR(D198&lt;$G$5, D198&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5807,11 +5946,11 @@
         <v>14.33</v>
       </c>
       <c r="D199">
-        <f>C199-B199</f>
+        <f t="shared" si="6"/>
         <v>-6.0000000000000497E-2</v>
       </c>
       <c r="E199">
-        <f>IF(OR(D199&lt;$G$5, D199&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5826,11 +5965,11 @@
         <v>14.34</v>
       </c>
       <c r="D200">
-        <f>C200-B200</f>
+        <f t="shared" si="6"/>
         <v>-0.25999999999999979</v>
       </c>
       <c r="E200">
-        <f>IF(OR(D200&lt;$G$5, D200&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5845,11 +5984,11 @@
         <v>14.82</v>
       </c>
       <c r="D201">
-        <f>C201-B201</f>
+        <f t="shared" si="6"/>
         <v>-0.25</v>
       </c>
       <c r="E201">
-        <f>IF(OR(D201&lt;$G$5, D201&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5864,11 +6003,11 @@
         <v>11.4</v>
       </c>
       <c r="D202">
-        <f>C202-B202</f>
+        <f t="shared" si="6"/>
         <v>-3.6799999999999997</v>
       </c>
       <c r="E202">
-        <f>IF(OR(D202&lt;$G$5, D202&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5883,11 +6022,11 @@
         <v>14.6</v>
       </c>
       <c r="D203">
-        <f>C203-B203</f>
+        <f t="shared" si="6"/>
         <v>-0.49000000000000021</v>
       </c>
       <c r="E203">
-        <f>IF(OR(D203&lt;$G$5, D203&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5902,11 +6041,11 @@
         <v>15</v>
       </c>
       <c r="D204">
-        <f>C204-B204</f>
+        <f t="shared" si="6"/>
         <v>-8.9999999999999858E-2</v>
       </c>
       <c r="E204">
-        <f>IF(OR(D204&lt;$G$5, D204&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5921,11 +6060,11 @@
         <v>15.13</v>
       </c>
       <c r="D205">
-        <f>C205-B205</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f>IF(OR(D205&lt;$G$5, D205&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5940,11 +6079,11 @@
         <v>14.29</v>
       </c>
       <c r="D206">
-        <f>C206-B206</f>
+        <f t="shared" si="6"/>
         <v>-0.99000000000000021</v>
       </c>
       <c r="E206">
-        <f>IF(OR(D206&lt;$G$5, D206&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5959,11 +6098,11 @@
         <v>22.11</v>
       </c>
       <c r="D207">
-        <f>C207-B207</f>
+        <f t="shared" si="6"/>
         <v>6.82</v>
       </c>
       <c r="E207">
-        <f>IF(OR(D207&lt;$G$5, D207&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5978,11 +6117,11 @@
         <v>12.47</v>
       </c>
       <c r="D208">
-        <f>C208-B208</f>
+        <f t="shared" si="6"/>
         <v>-2.8499999999999996</v>
       </c>
       <c r="E208">
-        <f>IF(OR(D208&lt;$G$5, D208&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5997,11 +6136,11 @@
         <v>14.48</v>
       </c>
       <c r="D209">
-        <f>C209-B209</f>
+        <f t="shared" si="6"/>
         <v>-0.87999999999999901</v>
       </c>
       <c r="E209">
-        <f>IF(OR(D209&lt;$G$5, D209&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6016,11 +6155,11 @@
         <v>14.64</v>
       </c>
       <c r="D210">
-        <f>C210-B210</f>
+        <f t="shared" si="6"/>
         <v>-0.77999999999999936</v>
       </c>
       <c r="E210">
-        <f>IF(OR(D210&lt;$G$5, D210&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6035,11 +6174,11 @@
         <v>14.71</v>
       </c>
       <c r="D211">
-        <f>C211-B211</f>
+        <f t="shared" si="6"/>
         <v>-0.83999999999999986</v>
       </c>
       <c r="E211">
-        <f>IF(OR(D211&lt;$G$5, D211&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6054,11 +6193,11 @@
         <v>18.05</v>
       </c>
       <c r="D212">
-        <f>C212-B212</f>
+        <f t="shared" si="6"/>
         <v>2.4300000000000015</v>
       </c>
       <c r="E212">
-        <f>IF(OR(D212&lt;$G$5, D212&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6073,11 +6212,11 @@
         <v>16.45</v>
       </c>
       <c r="D213">
-        <f>C213-B213</f>
+        <f t="shared" si="6"/>
         <v>0.79999999999999893</v>
       </c>
       <c r="E213">
-        <f>IF(OR(D213&lt;$G$5, D213&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6092,11 +6231,11 @@
         <v>17.63</v>
       </c>
       <c r="D214">
-        <f>C214-B214</f>
+        <f t="shared" si="6"/>
         <v>1.9399999999999995</v>
       </c>
       <c r="E214">
-        <f>IF(OR(D214&lt;$G$5, D214&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6111,11 +6250,11 @@
         <v>14.88</v>
       </c>
       <c r="D215">
-        <f>C215-B215</f>
+        <f t="shared" si="6"/>
         <v>-0.88999999999999879</v>
       </c>
       <c r="E215">
-        <f>IF(OR(D215&lt;$G$5, D215&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6130,11 +6269,11 @@
         <v>16.010000000000002</v>
       </c>
       <c r="D216">
-        <f>C216-B216</f>
+        <f t="shared" si="6"/>
         <v>0.21000000000000085</v>
       </c>
       <c r="E216">
-        <f>IF(OR(D216&lt;$G$5, D216&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6149,11 +6288,11 @@
         <v>14.35</v>
       </c>
       <c r="D217">
-        <f>C217-B217</f>
+        <f t="shared" si="6"/>
         <v>-1.4700000000000006</v>
       </c>
       <c r="E217">
-        <f>IF(OR(D217&lt;$G$5, D217&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6168,11 +6307,11 @@
         <v>18.91</v>
       </c>
       <c r="D218">
-        <f>C218-B218</f>
+        <f t="shared" si="6"/>
         <v>3.01</v>
       </c>
       <c r="E218">
-        <f>IF(OR(D218&lt;$G$5, D218&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6187,11 +6326,11 @@
         <v>14.83</v>
       </c>
       <c r="D219">
-        <f>C219-B219</f>
+        <f t="shared" si="6"/>
         <v>-1.4599999999999991</v>
       </c>
       <c r="E219">
-        <f>IF(OR(D219&lt;$G$5, D219&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6206,11 +6345,11 @@
         <v>15.74</v>
       </c>
       <c r="D220">
-        <f>C220-B220</f>
+        <f t="shared" si="6"/>
         <v>-0.5600000000000005</v>
       </c>
       <c r="E220">
-        <f>IF(OR(D220&lt;$G$5, D220&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6225,11 +6364,11 @@
         <v>17.260000000000002</v>
       </c>
       <c r="D221">
-        <f>C221-B221</f>
+        <f t="shared" si="6"/>
         <v>0.95000000000000284</v>
       </c>
       <c r="E221">
-        <f>IF(OR(D221&lt;$G$5, D221&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6244,11 +6383,11 @@
         <v>17.02</v>
       </c>
       <c r="D222">
-        <f>C222-B222</f>
+        <f t="shared" si="6"/>
         <v>0.66999999999999815</v>
       </c>
       <c r="E222">
-        <f>IF(OR(D222&lt;$G$5, D222&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6263,11 +6402,11 @@
         <v>17.739999999999998</v>
       </c>
       <c r="D223">
-        <f>C223-B223</f>
+        <f t="shared" si="6"/>
         <v>1.3599999999999994</v>
       </c>
       <c r="E223">
-        <f>IF(OR(D223&lt;$G$5, D223&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6282,11 +6421,11 @@
         <v>16.75</v>
       </c>
       <c r="D224">
-        <f>C224-B224</f>
+        <f t="shared" si="6"/>
         <v>0.32999999999999829</v>
       </c>
       <c r="E224">
-        <f>IF(OR(D224&lt;$G$5, D224&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6301,11 +6440,11 @@
         <v>17.38</v>
       </c>
       <c r="D225">
-        <f>C225-B225</f>
+        <f t="shared" si="6"/>
         <v>0.86999999999999744</v>
       </c>
       <c r="E225">
-        <f>IF(OR(D225&lt;$G$5, D225&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6320,11 +6459,11 @@
         <v>16.29</v>
       </c>
       <c r="D226">
-        <f>C226-B226</f>
+        <f t="shared" si="6"/>
         <v>-0.23000000000000043</v>
       </c>
       <c r="E226">
-        <f>IF(OR(D226&lt;$G$5, D226&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6339,11 +6478,11 @@
         <v>15.57</v>
       </c>
       <c r="D227">
-        <f>C227-B227</f>
+        <f t="shared" si="6"/>
         <v>-0.98000000000000043</v>
       </c>
       <c r="E227">
-        <f>IF(OR(D227&lt;$G$5, D227&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6358,11 +6497,11 @@
         <v>16.09</v>
       </c>
       <c r="D228">
-        <f>C228-B228</f>
+        <f t="shared" si="6"/>
         <v>-0.48999999999999844</v>
       </c>
       <c r="E228">
-        <f>IF(OR(D228&lt;$G$5, D228&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6377,11 +6516,11 @@
         <v>15.85</v>
       </c>
       <c r="D229">
-        <f>C229-B229</f>
+        <f t="shared" si="6"/>
         <v>-0.74000000000000021</v>
       </c>
       <c r="E229">
-        <f>IF(OR(D229&lt;$G$5, D229&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6396,11 +6535,11 @@
         <v>14.52</v>
       </c>
       <c r="D230">
-        <f>C230-B230</f>
+        <f t="shared" si="6"/>
         <v>-2.1000000000000014</v>
       </c>
       <c r="E230">
-        <f>IF(OR(D230&lt;$G$5, D230&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6415,11 +6554,11 @@
         <v>11.74</v>
       </c>
       <c r="D231">
-        <f>C231-B231</f>
+        <f t="shared" si="6"/>
         <v>-4.9500000000000011</v>
       </c>
       <c r="E231">
-        <f>IF(OR(D231&lt;$G$5, D231&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6434,11 +6573,11 @@
         <v>16.920000000000002</v>
       </c>
       <c r="D232">
-        <f>C232-B232</f>
+        <f t="shared" si="6"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="E232">
-        <f>IF(OR(D232&lt;$G$5, D232&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6453,11 +6592,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="D233">
-        <f>C233-B233</f>
+        <f t="shared" si="6"/>
         <v>1.5999999999999979</v>
       </c>
       <c r="E233">
-        <f>IF(OR(D233&lt;$G$5, D233&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6472,11 +6611,11 @@
         <v>17.190000000000001</v>
       </c>
       <c r="D234">
-        <f>C234-B234</f>
+        <f t="shared" si="6"/>
         <v>0.28000000000000114</v>
       </c>
       <c r="E234">
-        <f>IF(OR(D234&lt;$G$5, D234&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6491,11 +6630,11 @@
         <v>17.14</v>
       </c>
       <c r="D235">
-        <f>C235-B235</f>
+        <f t="shared" si="6"/>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="E235">
-        <f>IF(OR(D235&lt;$G$5, D235&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6510,11 +6649,11 @@
         <v>18.309999999999999</v>
       </c>
       <c r="D236">
-        <f>C236-B236</f>
+        <f t="shared" si="6"/>
         <v>0.98999999999999844</v>
       </c>
       <c r="E236">
-        <f>IF(OR(D236&lt;$G$5, D236&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6529,11 +6668,11 @@
         <v>17.57</v>
       </c>
       <c r="D237">
-        <f>C237-B237</f>
+        <f t="shared" si="6"/>
         <v>0.23000000000000043</v>
       </c>
       <c r="E237">
-        <f>IF(OR(D237&lt;$G$5, D237&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6548,11 +6687,11 @@
         <v>16.02</v>
       </c>
       <c r="D238">
-        <f>C238-B238</f>
+        <f t="shared" si="6"/>
         <v>-1.4499999999999993</v>
       </c>
       <c r="E238">
-        <f>IF(OR(D238&lt;$G$5, D238&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6567,11 +6706,11 @@
         <v>18.420000000000002</v>
       </c>
       <c r="D239">
-        <f>C239-B239</f>
+        <f t="shared" si="6"/>
         <v>0.93000000000000327</v>
       </c>
       <c r="E239">
-        <f>IF(OR(D239&lt;$G$5, D239&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6586,11 +6725,11 @@
         <v>17.29</v>
       </c>
       <c r="D240">
-        <f>C240-B240</f>
+        <f t="shared" si="6"/>
         <v>-0.28000000000000114</v>
       </c>
       <c r="E240">
-        <f>IF(OR(D240&lt;$G$5, D240&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6605,11 +6744,11 @@
         <v>12.68</v>
       </c>
       <c r="D241">
-        <f>C241-B241</f>
+        <f t="shared" si="6"/>
         <v>-4.9400000000000013</v>
       </c>
       <c r="E241">
-        <f>IF(OR(D241&lt;$G$5, D241&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6624,11 +6763,11 @@
         <v>16.75</v>
       </c>
       <c r="D242">
-        <f>C242-B242</f>
+        <f t="shared" si="6"/>
         <v>-1.2600000000000016</v>
       </c>
       <c r="E242">
-        <f>IF(OR(D242&lt;$G$5, D242&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6643,11 +6782,11 @@
         <v>16.260000000000002</v>
       </c>
       <c r="D243">
-        <f>C243-B243</f>
+        <f t="shared" si="6"/>
         <v>-1.7699999999999996</v>
       </c>
       <c r="E243">
-        <f>IF(OR(D243&lt;$G$5, D243&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6662,11 +6801,11 @@
         <v>17.16</v>
       </c>
       <c r="D244">
-        <f>C244-B244</f>
+        <f t="shared" si="6"/>
         <v>-0.87999999999999901</v>
       </c>
       <c r="E244">
-        <f>IF(OR(D244&lt;$G$5, D244&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6681,11 +6820,11 @@
         <v>11.62</v>
       </c>
       <c r="D245">
-        <f>C245-B245</f>
+        <f t="shared" si="6"/>
         <v>-6.4700000000000006</v>
       </c>
       <c r="E245">
-        <f>IF(OR(D245&lt;$G$5, D245&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6700,11 +6839,11 @@
         <v>17.829999999999998</v>
       </c>
       <c r="D246">
-        <f>C246-B246</f>
+        <f t="shared" si="6"/>
         <v>-0.27000000000000313</v>
       </c>
       <c r="E246">
-        <f>IF(OR(D246&lt;$G$5, D246&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6719,11 +6858,11 @@
         <v>13.8</v>
       </c>
       <c r="D247">
-        <f>C247-B247</f>
+        <f t="shared" si="6"/>
         <v>-4.34</v>
       </c>
       <c r="E247">
-        <f>IF(OR(D247&lt;$G$5, D247&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6738,11 +6877,11 @@
         <v>18.57</v>
       </c>
       <c r="D248">
-        <f>C248-B248</f>
+        <f t="shared" si="6"/>
         <v>0.10000000000000142</v>
       </c>
       <c r="E248">
-        <f>IF(OR(D248&lt;$G$5, D248&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6757,11 +6896,11 @@
         <v>19.440000000000001</v>
       </c>
       <c r="D249">
-        <f>C249-B249</f>
+        <f t="shared" si="6"/>
         <v>0.92999999999999972</v>
       </c>
       <c r="E249">
-        <f>IF(OR(D249&lt;$G$5, D249&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6776,11 +6915,11 @@
         <v>15.99</v>
       </c>
       <c r="D250">
-        <f>C250-B250</f>
+        <f t="shared" si="6"/>
         <v>-2.5699999999999985</v>
       </c>
       <c r="E250">
-        <f>IF(OR(D250&lt;$G$5, D250&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6795,11 +6934,11 @@
         <v>20.02</v>
       </c>
       <c r="D251">
-        <f>C251-B251</f>
+        <f t="shared" si="6"/>
         <v>1.3900000000000006</v>
       </c>
       <c r="E251">
-        <f>IF(OR(D251&lt;$G$5, D251&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6814,11 +6953,11 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D252">
-        <f>C252-B252</f>
+        <f t="shared" si="6"/>
         <v>-0.53999999999999915</v>
       </c>
       <c r="E252">
-        <f>IF(OR(D252&lt;$G$5, D252&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6833,11 +6972,11 @@
         <v>14.9</v>
       </c>
       <c r="D253">
-        <f>C253-B253</f>
+        <f t="shared" si="6"/>
         <v>-4.2999999999999989</v>
       </c>
       <c r="E253">
-        <f>IF(OR(D253&lt;$G$5, D253&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6852,11 +6991,11 @@
         <v>17.28</v>
       </c>
       <c r="D254">
-        <f>C254-B254</f>
+        <f t="shared" si="6"/>
         <v>-1.9899999999999984</v>
       </c>
       <c r="E254">
-        <f>IF(OR(D254&lt;$G$5, D254&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6871,11 +7010,11 @@
         <v>18.57</v>
       </c>
       <c r="D255">
-        <f>C255-B255</f>
+        <f t="shared" si="6"/>
         <v>-0.80999999999999872</v>
       </c>
       <c r="E255">
-        <f>IF(OR(D255&lt;$G$5, D255&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6890,11 +7029,11 @@
         <v>17.89</v>
       </c>
       <c r="D256">
-        <f>C256-B256</f>
+        <f t="shared" si="6"/>
         <v>-1.5399999999999991</v>
       </c>
       <c r="E256">
-        <f>IF(OR(D256&lt;$G$5, D256&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6909,11 +7048,11 @@
         <v>17.73</v>
       </c>
       <c r="D257">
-        <f>C257-B257</f>
+        <f t="shared" si="6"/>
         <v>-1.7199999999999989</v>
       </c>
       <c r="E257">
-        <f>IF(OR(D257&lt;$G$5, D257&gt;$G$6),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6928,11 +7067,11 @@
         <v>21.58</v>
       </c>
       <c r="D258">
-        <f>C258-B258</f>
+        <f t="shared" ref="D258:D321" si="8">C258-B258</f>
         <v>2.1099999999999994</v>
       </c>
       <c r="E258">
-        <f>IF(OR(D258&lt;$G$5, D258&gt;$G$6),1,0)</f>
+        <f t="shared" ref="E258:E321" si="9">IF(OR(D258&lt;$G$5, D258&gt;$G$6),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6947,11 +7086,11 @@
         <v>17.57</v>
       </c>
       <c r="D259">
-        <f>C259-B259</f>
+        <f t="shared" si="8"/>
         <v>-2.379999999999999</v>
       </c>
       <c r="E259">
-        <f>IF(OR(D259&lt;$G$5, D259&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6966,11 +7105,11 @@
         <v>16.12</v>
       </c>
       <c r="D260">
-        <f>C260-B260</f>
+        <f t="shared" si="8"/>
         <v>-3.9599999999999973</v>
       </c>
       <c r="E260">
-        <f>IF(OR(D260&lt;$G$5, D260&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6985,11 +7124,11 @@
         <v>18.920000000000002</v>
       </c>
       <c r="D261">
-        <f>C261-B261</f>
+        <f t="shared" si="8"/>
         <v>-1.2699999999999996</v>
       </c>
       <c r="E261">
-        <f>IF(OR(D261&lt;$G$5, D261&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7004,11 +7143,11 @@
         <v>19.96</v>
       </c>
       <c r="D262">
-        <f>C262-B262</f>
+        <f t="shared" si="8"/>
         <v>-0.32999999999999829</v>
       </c>
       <c r="E262">
-        <f>IF(OR(D262&lt;$G$5, D262&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7023,11 +7162,11 @@
         <v>23.24</v>
       </c>
       <c r="D263">
-        <f>C263-B263</f>
+        <f t="shared" si="8"/>
         <v>2.879999999999999</v>
       </c>
       <c r="E263">
-        <f>IF(OR(D263&lt;$G$5, D263&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7042,11 +7181,11 @@
         <v>18.96</v>
       </c>
       <c r="D264">
-        <f>C264-B264</f>
+        <f t="shared" si="8"/>
         <v>-1.5299999999999976</v>
       </c>
       <c r="E264">
-        <f>IF(OR(D264&lt;$G$5, D264&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7061,11 +7200,11 @@
         <v>17.850000000000001</v>
       </c>
       <c r="D265">
-        <f>C265-B265</f>
+        <f t="shared" si="8"/>
         <v>-2.759999999999998</v>
       </c>
       <c r="E265">
-        <f>IF(OR(D265&lt;$G$5, D265&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7080,11 +7219,11 @@
         <v>17.98</v>
       </c>
       <c r="D266">
-        <f>C266-B266</f>
+        <f t="shared" si="8"/>
         <v>-2.7899999999999991</v>
       </c>
       <c r="E266">
-        <f>IF(OR(D266&lt;$G$5, D266&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7099,11 +7238,11 @@
         <v>20.05</v>
       </c>
       <c r="D267">
-        <f>C267-B267</f>
+        <f t="shared" si="8"/>
         <v>-0.80999999999999872</v>
       </c>
       <c r="E267">
-        <f>IF(OR(D267&lt;$G$5, D267&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7118,11 +7257,11 @@
         <v>19.18</v>
       </c>
       <c r="D268">
-        <f>C268-B268</f>
+        <f t="shared" si="8"/>
         <v>-2.0599999999999987</v>
       </c>
       <c r="E268">
-        <f>IF(OR(D268&lt;$G$5, D268&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7137,11 +7276,11 @@
         <v>18.920000000000002</v>
       </c>
       <c r="D269">
-        <f>C269-B269</f>
+        <f t="shared" si="8"/>
         <v>-2.3499999999999979</v>
       </c>
       <c r="E269">
-        <f>IF(OR(D269&lt;$G$5, D269&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7156,11 +7295,11 @@
         <v>18.32</v>
       </c>
       <c r="D270">
-        <f>C270-B270</f>
+        <f t="shared" si="8"/>
         <v>-2.9899999999999984</v>
       </c>
       <c r="E270">
-        <f>IF(OR(D270&lt;$G$5, D270&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7175,11 +7314,11 @@
         <v>18.52</v>
       </c>
       <c r="D271">
-        <f>C271-B271</f>
+        <f t="shared" si="8"/>
         <v>-3.1099999999999994</v>
       </c>
       <c r="E271">
-        <f>IF(OR(D271&lt;$G$5, D271&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7194,11 +7333,11 @@
         <v>22.89</v>
       </c>
       <c r="D272">
-        <f>C272-B272</f>
+        <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="E272">
-        <f>IF(OR(D272&lt;$G$5, D272&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7213,11 +7352,11 @@
         <v>19.940000000000001</v>
       </c>
       <c r="D273">
-        <f>C273-B273</f>
+        <f t="shared" si="8"/>
         <v>-1.7899999999999991</v>
       </c>
       <c r="E273">
-        <f>IF(OR(D273&lt;$G$5, D273&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7232,11 +7371,11 @@
         <v>20.22</v>
       </c>
       <c r="D274">
-        <f>C274-B274</f>
+        <f t="shared" si="8"/>
         <v>-1.6300000000000026</v>
       </c>
       <c r="E274">
-        <f>IF(OR(D274&lt;$G$5, D274&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7251,11 +7390,11 @@
         <v>19.68</v>
       </c>
       <c r="D275">
-        <f>C275-B275</f>
+        <f t="shared" si="8"/>
         <v>-2.41</v>
       </c>
       <c r="E275">
-        <f>IF(OR(D275&lt;$G$5, D275&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7270,11 +7409,11 @@
         <v>21.52</v>
       </c>
       <c r="D276">
-        <f>C276-B276</f>
+        <f t="shared" si="8"/>
         <v>-0.85999999999999943</v>
       </c>
       <c r="E276">
-        <f>IF(OR(D276&lt;$G$5, D276&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7289,11 +7428,11 @@
         <v>18.190000000000001</v>
       </c>
       <c r="D277">
-        <f>C277-B277</f>
+        <f t="shared" si="8"/>
         <v>-4.1999999999999993</v>
       </c>
       <c r="E277">
-        <f>IF(OR(D277&lt;$G$5, D277&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7308,11 +7447,11 @@
         <v>21.06</v>
       </c>
       <c r="D278">
-        <f>C278-B278</f>
+        <f t="shared" si="8"/>
         <v>-1.4600000000000009</v>
       </c>
       <c r="E278">
-        <f>IF(OR(D278&lt;$G$5, D278&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7327,11 +7466,11 @@
         <v>21.92</v>
       </c>
       <c r="D279">
-        <f>C279-B279</f>
+        <f t="shared" si="8"/>
         <v>-0.61999999999999744</v>
       </c>
       <c r="E279">
-        <f>IF(OR(D279&lt;$G$5, D279&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7346,11 +7485,11 @@
         <v>20.61</v>
       </c>
       <c r="D280">
-        <f>C280-B280</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="E280">
-        <f>IF(OR(D280&lt;$G$5, D280&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7365,11 +7504,11 @@
         <v>23.1</v>
       </c>
       <c r="D281">
-        <f>C281-B281</f>
+        <f t="shared" si="8"/>
         <v>0.49000000000000199</v>
       </c>
       <c r="E281">
-        <f>IF(OR(D281&lt;$G$5, D281&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7384,11 +7523,11 @@
         <v>21.32</v>
       </c>
       <c r="D282">
-        <f>C282-B282</f>
+        <f t="shared" si="8"/>
         <v>-1.3299999999999983</v>
       </c>
       <c r="E282">
-        <f>IF(OR(D282&lt;$G$5, D282&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7403,11 +7542,11 @@
         <v>21.82</v>
       </c>
       <c r="D283">
-        <f>C283-B283</f>
+        <f t="shared" si="8"/>
         <v>-1.009999999999998</v>
       </c>
       <c r="E283">
-        <f>IF(OR(D283&lt;$G$5, D283&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7422,11 +7561,11 @@
         <v>23.03</v>
       </c>
       <c r="D284">
-        <f>C284-B284</f>
+        <f t="shared" si="8"/>
         <v>-0.12999999999999901</v>
       </c>
       <c r="E284">
-        <f>IF(OR(D284&lt;$G$5, D284&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7441,11 +7580,11 @@
         <v>23.34</v>
       </c>
       <c r="D285">
-        <f>C285-B285</f>
+        <f t="shared" si="8"/>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="E285">
-        <f>IF(OR(D285&lt;$G$5, D285&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7460,11 +7599,11 @@
         <v>21.35</v>
       </c>
       <c r="D286">
-        <f>C286-B286</f>
+        <f t="shared" si="8"/>
         <v>-2.0599999999999987</v>
       </c>
       <c r="E286">
-        <f>IF(OR(D286&lt;$G$5, D286&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7479,11 +7618,11 @@
         <v>23.91</v>
       </c>
       <c r="D287">
-        <f>C287-B287</f>
+        <f t="shared" si="8"/>
         <v>0.46000000000000085</v>
       </c>
       <c r="E287">
-        <f>IF(OR(D287&lt;$G$5, D287&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7498,11 +7637,11 @@
         <v>20.72</v>
       </c>
       <c r="D288">
-        <f>C288-B288</f>
+        <f t="shared" si="8"/>
         <v>-2.8500000000000014</v>
       </c>
       <c r="E288">
-        <f>IF(OR(D288&lt;$G$5, D288&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7517,11 +7656,11 @@
         <v>22.15</v>
       </c>
       <c r="D289">
-        <f>C289-B289</f>
+        <f t="shared" si="8"/>
         <v>-1.6000000000000014</v>
       </c>
       <c r="E289">
-        <f>IF(OR(D289&lt;$G$5, D289&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7536,11 +7675,11 @@
         <v>22.42</v>
       </c>
       <c r="D290">
-        <f>C290-B290</f>
+        <f t="shared" si="8"/>
         <v>-1.3499999999999979</v>
       </c>
       <c r="E290">
-        <f>IF(OR(D290&lt;$G$5, D290&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7555,11 +7694,11 @@
         <v>19.07</v>
       </c>
       <c r="D291">
-        <f>C291-B291</f>
+        <f t="shared" si="8"/>
         <v>-4.8099999999999987</v>
       </c>
       <c r="E291">
-        <f>IF(OR(D291&lt;$G$5, D291&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7574,11 +7713,11 @@
         <v>22.8</v>
       </c>
       <c r="D292">
-        <f>C292-B292</f>
+        <f t="shared" si="8"/>
         <v>-1.0999999999999979</v>
       </c>
       <c r="E292">
-        <f>IF(OR(D292&lt;$G$5, D292&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7593,11 +7732,11 @@
         <v>23.24</v>
       </c>
       <c r="D293">
-        <f>C293-B293</f>
+        <f t="shared" si="8"/>
         <v>-0.69000000000000128</v>
       </c>
       <c r="E293">
-        <f>IF(OR(D293&lt;$G$5, D293&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7612,11 +7751,11 @@
         <v>22.96</v>
       </c>
       <c r="D294">
-        <f>C294-B294</f>
+        <f t="shared" si="8"/>
         <v>-1.0199999999999996</v>
       </c>
       <c r="E294">
-        <f>IF(OR(D294&lt;$G$5, D294&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7631,11 +7770,11 @@
         <v>21.2</v>
       </c>
       <c r="D295">
-        <f>C295-B295</f>
+        <f t="shared" si="8"/>
         <v>-2.9000000000000021</v>
       </c>
       <c r="E295">
-        <f>IF(OR(D295&lt;$G$5, D295&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7650,11 +7789,11 @@
         <v>22.61</v>
       </c>
       <c r="D296">
-        <f>C296-B296</f>
+        <f t="shared" si="8"/>
         <v>-1.5700000000000003</v>
       </c>
       <c r="E296">
-        <f>IF(OR(D296&lt;$G$5, D296&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7669,11 +7808,11 @@
         <v>23.6</v>
       </c>
       <c r="D297">
-        <f>C297-B297</f>
+        <f t="shared" si="8"/>
         <v>-0.61999999999999744</v>
       </c>
       <c r="E297">
-        <f>IF(OR(D297&lt;$G$5, D297&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7688,11 +7827,11 @@
         <v>24.04</v>
       </c>
       <c r="D298">
-        <f>C298-B298</f>
+        <f t="shared" si="8"/>
         <v>-0.40000000000000213</v>
       </c>
       <c r="E298">
-        <f>IF(OR(D298&lt;$G$5, D298&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7707,11 +7846,11 @@
         <v>23.03</v>
       </c>
       <c r="D299">
-        <f>C299-B299</f>
+        <f t="shared" si="8"/>
         <v>-1.4800000000000004</v>
       </c>
       <c r="E299">
-        <f>IF(OR(D299&lt;$G$5, D299&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7726,11 +7865,11 @@
         <v>24.25</v>
       </c>
       <c r="D300">
-        <f>C300-B300</f>
+        <f t="shared" si="8"/>
         <v>-0.28999999999999915</v>
       </c>
       <c r="E300">
-        <f>IF(OR(D300&lt;$G$5, D300&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7745,11 +7884,11 @@
         <v>23.81</v>
       </c>
       <c r="D301">
-        <f>C301-B301</f>
+        <f t="shared" si="8"/>
         <v>-0.7900000000000027</v>
       </c>
       <c r="E301">
-        <f>IF(OR(D301&lt;$G$5, D301&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7764,11 +7903,11 @@
         <v>18.940000000000001</v>
       </c>
       <c r="D302">
-        <f>C302-B302</f>
+        <f t="shared" si="8"/>
         <v>-5.6999999999999993</v>
       </c>
       <c r="E302">
-        <f>IF(OR(D302&lt;$G$5, D302&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7783,11 +7922,11 @@
         <v>22.52</v>
       </c>
       <c r="D303">
-        <f>C303-B303</f>
+        <f t="shared" si="8"/>
         <v>-2.129999999999999</v>
       </c>
       <c r="E303">
-        <f>IF(OR(D303&lt;$G$5, D303&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7802,11 +7941,11 @@
         <v>22.89</v>
       </c>
       <c r="D304">
-        <f>C304-B304</f>
+        <f t="shared" si="8"/>
         <v>-1.8000000000000007</v>
       </c>
       <c r="E304">
-        <f>IF(OR(D304&lt;$G$5, D304&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7821,11 +7960,11 @@
         <v>22.51</v>
       </c>
       <c r="D305">
-        <f>C305-B305</f>
+        <f t="shared" si="8"/>
         <v>-2.3299999999999983</v>
       </c>
       <c r="E305">
-        <f>IF(OR(D305&lt;$G$5, D305&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7840,11 +7979,11 @@
         <v>21.79</v>
       </c>
       <c r="D306">
-        <f>C306-B306</f>
+        <f t="shared" si="8"/>
         <v>-3.16</v>
       </c>
       <c r="E306">
-        <f>IF(OR(D306&lt;$G$5, D306&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7859,11 +7998,11 @@
         <v>25.02</v>
       </c>
       <c r="D307">
-        <f>C307-B307</f>
+        <f t="shared" si="8"/>
         <v>-1.9999999999999574E-2</v>
       </c>
       <c r="E307">
-        <f>IF(OR(D307&lt;$G$5, D307&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7878,11 +8017,11 @@
         <v>25.08</v>
       </c>
       <c r="D308">
-        <f>C308-B308</f>
+        <f t="shared" si="8"/>
         <v>-0.31000000000000227</v>
       </c>
       <c r="E308">
-        <f>IF(OR(D308&lt;$G$5, D308&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7897,11 +8036,11 @@
         <v>22.48</v>
       </c>
       <c r="D309">
-        <f>C309-B309</f>
+        <f t="shared" si="8"/>
         <v>-2.9600000000000009</v>
       </c>
       <c r="E309">
-        <f>IF(OR(D309&lt;$G$5, D309&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7916,11 +8055,11 @@
         <v>24.56</v>
       </c>
       <c r="D310">
-        <f>C310-B310</f>
+        <f t="shared" si="8"/>
         <v>-0.92999999999999972</v>
       </c>
       <c r="E310">
-        <f>IF(OR(D310&lt;$G$5, D310&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7935,11 +8074,11 @@
         <v>23.82</v>
       </c>
       <c r="D311">
-        <f>C311-B311</f>
+        <f t="shared" si="8"/>
         <v>-1.8099999999999987</v>
       </c>
       <c r="E311">
-        <f>IF(OR(D311&lt;$G$5, D311&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7954,11 +8093,11 @@
         <v>23.92</v>
       </c>
       <c r="D312">
-        <f>C312-B312</f>
+        <f t="shared" si="8"/>
         <v>-1.9099999999999966</v>
       </c>
       <c r="E312">
-        <f>IF(OR(D312&lt;$G$5, D312&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7973,11 +8112,11 @@
         <v>24.61</v>
       </c>
       <c r="D313">
-        <f>C313-B313</f>
+        <f t="shared" si="8"/>
         <v>-1.6900000000000013</v>
       </c>
       <c r="E313">
-        <f>IF(OR(D313&lt;$G$5, D313&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7992,11 +8131,11 @@
         <v>23.58</v>
       </c>
       <c r="D314">
-        <f>C314-B314</f>
+        <f t="shared" si="8"/>
         <v>-2.7600000000000016</v>
       </c>
       <c r="E314">
-        <f>IF(OR(D314&lt;$G$5, D314&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8011,11 +8150,11 @@
         <v>26.52</v>
       </c>
       <c r="D315">
-        <f>C315-B315</f>
+        <f t="shared" si="8"/>
         <v>-0.17999999999999972</v>
       </c>
       <c r="E315">
-        <f>IF(OR(D315&lt;$G$5, D315&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8030,11 +8169,11 @@
         <v>26.03</v>
       </c>
       <c r="D316">
-        <f>C316-B316</f>
+        <f t="shared" si="8"/>
         <v>-1.7099999999999973</v>
       </c>
       <c r="E316">
-        <f>IF(OR(D316&lt;$G$5, D316&gt;$G$6),1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8046,11 +8185,11 @@
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D2:D316">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$G$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$G$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8059,14 +8198,2752 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5219294-D300-4A8D-BE19-3E0E26E14704}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B2">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.28</v>
+      </c>
+      <c r="B3">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.48</v>
+      </c>
+      <c r="B4">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.49</v>
+      </c>
+      <c r="B5">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.59</v>
+      </c>
+      <c r="B6">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.64</v>
+      </c>
+      <c r="B8">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.69</v>
+      </c>
+      <c r="B9">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.75</v>
+      </c>
+      <c r="B10">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.79</v>
+      </c>
+      <c r="B11">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.88</v>
+      </c>
+      <c r="B12">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.02</v>
+      </c>
+      <c r="B13">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.12</v>
+      </c>
+      <c r="B14">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B15">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="B16">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="B17">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2.44</v>
+      </c>
+      <c r="B18">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="B19">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.63</v>
+      </c>
+      <c r="B20">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.74</v>
+      </c>
+      <c r="B21">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.81</v>
+      </c>
+      <c r="B22">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2.87</v>
+      </c>
+      <c r="B23">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.94</v>
+      </c>
+      <c r="B24">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3.02</v>
+      </c>
+      <c r="B28">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3.05</v>
+      </c>
+      <c r="B29">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.27</v>
+      </c>
+      <c r="B30">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3.32</v>
+      </c>
+      <c r="B31">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3.32</v>
+      </c>
+      <c r="B32">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3.39</v>
+      </c>
+      <c r="B33">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3.44</v>
+      </c>
+      <c r="B34">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3.65</v>
+      </c>
+      <c r="B35">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3.72</v>
+      </c>
+      <c r="B36">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3.74</v>
+      </c>
+      <c r="B37">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3.84</v>
+      </c>
+      <c r="B38">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3.94</v>
+      </c>
+      <c r="B39">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4.05</v>
+      </c>
+      <c r="B40">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4.2</v>
+      </c>
+      <c r="B41">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B42">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4.47</v>
+      </c>
+      <c r="B43">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B44">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4.58</v>
+      </c>
+      <c r="B45">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4.66</v>
+      </c>
+      <c r="B46">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5.05</v>
+      </c>
+      <c r="B47">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5.16</v>
+      </c>
+      <c r="B48">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5.17</v>
+      </c>
+      <c r="B49">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5.49</v>
+      </c>
+      <c r="B50">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5.57</v>
+      </c>
+      <c r="B51">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5.65</v>
+      </c>
+      <c r="B52">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5.71</v>
+      </c>
+      <c r="B53">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5.79</v>
+      </c>
+      <c r="B54">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5.82</v>
+      </c>
+      <c r="B55">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5.85</v>
+      </c>
+      <c r="B56">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5.87</v>
+      </c>
+      <c r="B57">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5.97</v>
+      </c>
+      <c r="B58">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5.98</v>
+      </c>
+      <c r="B59">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6.03</v>
+      </c>
+      <c r="B61">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6.06</v>
+      </c>
+      <c r="B62">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6.19</v>
+      </c>
+      <c r="B63">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6.4</v>
+      </c>
+      <c r="B64">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6.59</v>
+      </c>
+      <c r="B65">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6.72</v>
+      </c>
+      <c r="B66">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6.79</v>
+      </c>
+      <c r="B67">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6.8</v>
+      </c>
+      <c r="B68">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6.97</v>
+      </c>
+      <c r="B69">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7.17</v>
+      </c>
+      <c r="B70">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>7.2</v>
+      </c>
+      <c r="B71">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>7.24</v>
+      </c>
+      <c r="B72">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>7.25</v>
+      </c>
+      <c r="B73">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>7.38</v>
+      </c>
+      <c r="B74">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>7.53</v>
+      </c>
+      <c r="B75">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>7.57</v>
+      </c>
+      <c r="B76">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>7.58</v>
+      </c>
+      <c r="B77">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>7.59</v>
+      </c>
+      <c r="B78">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>7.6</v>
+      </c>
+      <c r="B79">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>7.68</v>
+      </c>
+      <c r="B80">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>7.79</v>
+      </c>
+      <c r="B81">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>7.84</v>
+      </c>
+      <c r="B82">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>8.27</v>
+      </c>
+      <c r="B83">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="B84">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="B85">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="B86">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>8.42</v>
+      </c>
+      <c r="B87">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>8.49</v>
+      </c>
+      <c r="B88">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="B89">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>8.59</v>
+      </c>
+      <c r="B90">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="B91">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>8.67</v>
+      </c>
+      <c r="B92">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>8.67</v>
+      </c>
+      <c r="B93">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>8.68</v>
+      </c>
+      <c r="B94">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="B95">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>8.73</v>
+      </c>
+      <c r="B96">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>8.73</v>
+      </c>
+      <c r="B97">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="B98">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>8.9</v>
+      </c>
+      <c r="B99">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>8.91</v>
+      </c>
+      <c r="B100">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="B101">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="B102">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="B103">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>9.19</v>
+      </c>
+      <c r="B104">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>9.23</v>
+      </c>
+      <c r="B105">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>9.26</v>
+      </c>
+      <c r="B106">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>9.34</v>
+      </c>
+      <c r="B107">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="B108">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="B109">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9.39</v>
+      </c>
+      <c r="B110">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>9.43</v>
+      </c>
+      <c r="B111">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="B112">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>9.51</v>
+      </c>
+      <c r="B113">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="B114">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9.57</v>
+      </c>
+      <c r="B115">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9.65</v>
+      </c>
+      <c r="B116">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="B117">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>9.82</v>
+      </c>
+      <c r="B118">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>10.07</v>
+      </c>
+      <c r="B119">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="B120">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>10.14</v>
+      </c>
+      <c r="B121">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>10.18</v>
+      </c>
+      <c r="B122">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>10.18</v>
+      </c>
+      <c r="B123">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="B124">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>10.32</v>
+      </c>
+      <c r="B125">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>10.52</v>
+      </c>
+      <c r="B126">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>10.54</v>
+      </c>
+      <c r="B127">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>10.58</v>
+      </c>
+      <c r="B128">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>10.77</v>
+      </c>
+      <c r="B129">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>10.78</v>
+      </c>
+      <c r="B130">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>10.78</v>
+      </c>
+      <c r="B131">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>10.81</v>
+      </c>
+      <c r="B132">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>10.82</v>
+      </c>
+      <c r="B133">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>10.89</v>
+      </c>
+      <c r="B134">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>11.05</v>
+      </c>
+      <c r="B136">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>11.09</v>
+      </c>
+      <c r="B137">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>11.12</v>
+      </c>
+      <c r="B138">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>11.19</v>
+      </c>
+      <c r="B139">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>11.22</v>
+      </c>
+      <c r="B140">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>11.34</v>
+      </c>
+      <c r="B141">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>11.36</v>
+      </c>
+      <c r="B142">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>11.36</v>
+      </c>
+      <c r="B143">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>11.37</v>
+      </c>
+      <c r="B144">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>11.44</v>
+      </c>
+      <c r="B145">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>11.44</v>
+      </c>
+      <c r="B146">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>11.52</v>
+      </c>
+      <c r="B147">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>11.59</v>
+      </c>
+      <c r="B148">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>11.65</v>
+      </c>
+      <c r="B149">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>11.69</v>
+      </c>
+      <c r="B150">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>11.76</v>
+      </c>
+      <c r="B151">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>11.82</v>
+      </c>
+      <c r="B152">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>11.91</v>
+      </c>
+      <c r="B153">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>11.97</v>
+      </c>
+      <c r="B154">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>12.01</v>
+      </c>
+      <c r="B155">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>12.02</v>
+      </c>
+      <c r="B156">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>12.11</v>
+      </c>
+      <c r="B157">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>12.21</v>
+      </c>
+      <c r="B158">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>12.22</v>
+      </c>
+      <c r="B159">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>12.22</v>
+      </c>
+      <c r="B160">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>12.3</v>
+      </c>
+      <c r="B161">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>12.74</v>
+      </c>
+      <c r="B162">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>12.74</v>
+      </c>
+      <c r="B163">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>12.81</v>
+      </c>
+      <c r="B164">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>12.94</v>
+      </c>
+      <c r="B165">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>12.96</v>
+      </c>
+      <c r="B166">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>12.99</v>
+      </c>
+      <c r="B167">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>13.06</v>
+      </c>
+      <c r="B168">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>13.13</v>
+      </c>
+      <c r="B169">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>13.2</v>
+      </c>
+      <c r="B170">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>13.21</v>
+      </c>
+      <c r="B171">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>13.23</v>
+      </c>
+      <c r="B172">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>13.33</v>
+      </c>
+      <c r="B173">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>13.34</v>
+      </c>
+      <c r="B174">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>13.36</v>
+      </c>
+      <c r="B175">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>13.45</v>
+      </c>
+      <c r="B176">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>13.52</v>
+      </c>
+      <c r="B177">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>13.57</v>
+      </c>
+      <c r="B178">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>13.61</v>
+      </c>
+      <c r="B179">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>13.61</v>
+      </c>
+      <c r="B180">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>13.62</v>
+      </c>
+      <c r="B181">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>13.65</v>
+      </c>
+      <c r="B182">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>13.69</v>
+      </c>
+      <c r="B183">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>13.72</v>
+      </c>
+      <c r="B184">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>13.77</v>
+      </c>
+      <c r="B185">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>13.87</v>
+      </c>
+      <c r="B186">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>13.88</v>
+      </c>
+      <c r="B187">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>14.11</v>
+      </c>
+      <c r="B188">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>14.11</v>
+      </c>
+      <c r="B189">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>14.12</v>
+      </c>
+      <c r="B190">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>14.29</v>
+      </c>
+      <c r="B191">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>14.32</v>
+      </c>
+      <c r="B192">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>14.39</v>
+      </c>
+      <c r="B193">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>14.6</v>
+      </c>
+      <c r="B194">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>15.07</v>
+      </c>
+      <c r="B195">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>15.08</v>
+      </c>
+      <c r="B196">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>15.09</v>
+      </c>
+      <c r="B197">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>15.09</v>
+      </c>
+      <c r="B198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>15.13</v>
+      </c>
+      <c r="B199">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>15.28</v>
+      </c>
+      <c r="B200">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>15.32</v>
+      </c>
+      <c r="B201">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>15.36</v>
+      </c>
+      <c r="B202">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>15.42</v>
+      </c>
+      <c r="B203">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>15.55</v>
+      </c>
+      <c r="B204">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>15.62</v>
+      </c>
+      <c r="B205">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>15.65</v>
+      </c>
+      <c r="B206">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>15.69</v>
+      </c>
+      <c r="B207">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>15.77</v>
+      </c>
+      <c r="B208">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>15.8</v>
+      </c>
+      <c r="B209">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>15.82</v>
+      </c>
+      <c r="B210">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>15.9</v>
+      </c>
+      <c r="B211">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>16.29</v>
+      </c>
+      <c r="B212">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>16.3</v>
+      </c>
+      <c r="B213">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="B214">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="B215">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>16.38</v>
+      </c>
+      <c r="B216">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="B217">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="B218">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>16.52</v>
+      </c>
+      <c r="B219">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>16.55</v>
+      </c>
+      <c r="B220">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="B221">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>16.59</v>
+      </c>
+      <c r="B222">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>16.62</v>
+      </c>
+      <c r="B223">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>16.72</v>
+      </c>
+      <c r="B224">
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>16.8</v>
+      </c>
+      <c r="B225">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>16.91</v>
+      </c>
+      <c r="B226">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>17.11</v>
+      </c>
+      <c r="B227">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>17.32</v>
+      </c>
+      <c r="B228">
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>17.34</v>
+      </c>
+      <c r="B229">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>17.47</v>
+      </c>
+      <c r="B230">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="B231">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>17.57</v>
+      </c>
+      <c r="B232">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="B233">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>18.03</v>
+      </c>
+      <c r="B234">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>18.04</v>
+      </c>
+      <c r="B235">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B236">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>18.47</v>
+      </c>
+      <c r="B237">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="B238">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="B239">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>18.63</v>
+      </c>
+      <c r="B240">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>19.14</v>
+      </c>
+      <c r="B241">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>19.27</v>
+      </c>
+      <c r="B242">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>19.38</v>
+      </c>
+      <c r="B243">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>19.43</v>
+      </c>
+      <c r="B244">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>19.45</v>
+      </c>
+      <c r="B245">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>19.47</v>
+      </c>
+      <c r="B246">
+        <v>21.58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>19.95</v>
+      </c>
+      <c r="B247">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="B248">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="B249">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>20.29</v>
+      </c>
+      <c r="B250">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>20.36</v>
+      </c>
+      <c r="B251">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>20.49</v>
+      </c>
+      <c r="B252">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>20.61</v>
+      </c>
+      <c r="B253">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>20.77</v>
+      </c>
+      <c r="B254">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>20.86</v>
+      </c>
+      <c r="B255">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>21.24</v>
+      </c>
+      <c r="B256">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>21.27</v>
+      </c>
+      <c r="B257">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>21.31</v>
+      </c>
+      <c r="B258">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>21.63</v>
+      </c>
+      <c r="B259">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>21.64</v>
+      </c>
+      <c r="B260">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>21.73</v>
+      </c>
+      <c r="B261">
+        <v>19.940000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>21.85</v>
+      </c>
+      <c r="B262">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>22.09</v>
+      </c>
+      <c r="B263">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>22.38</v>
+      </c>
+      <c r="B264">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>22.52</v>
+      </c>
+      <c r="B265">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>22.54</v>
+      </c>
+      <c r="B266">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>22.61</v>
+      </c>
+      <c r="B267">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>22.61</v>
+      </c>
+      <c r="B268">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>22.65</v>
+      </c>
+      <c r="B269">
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>22.83</v>
+      </c>
+      <c r="B270">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>23.16</v>
+      </c>
+      <c r="B271">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>23.25</v>
+      </c>
+      <c r="B272">
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>23.41</v>
+      </c>
+      <c r="B273">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>23.45</v>
+      </c>
+      <c r="B274">
+        <v>23.91</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>23.57</v>
+      </c>
+      <c r="B275">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>23.75</v>
+      </c>
+      <c r="B276">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>23.77</v>
+      </c>
+      <c r="B277">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>23.9</v>
+      </c>
+      <c r="B278">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>23.93</v>
+      </c>
+      <c r="B279">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>23.98</v>
+      </c>
+      <c r="B280">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>24.1</v>
+      </c>
+      <c r="B281">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>24.18</v>
+      </c>
+      <c r="B282">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>24.22</v>
+      </c>
+      <c r="B283">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>24.44</v>
+      </c>
+      <c r="B284">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>24.51</v>
+      </c>
+      <c r="B285">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>24.54</v>
+      </c>
+      <c r="B286">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>24.6</v>
+      </c>
+      <c r="B287">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>24.65</v>
+      </c>
+      <c r="B288">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>24.69</v>
+      </c>
+      <c r="B289">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>24.84</v>
+      </c>
+      <c r="B290">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>24.95</v>
+      </c>
+      <c r="B291">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>25.04</v>
+      </c>
+      <c r="B292">
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>25.39</v>
+      </c>
+      <c r="B293">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>25.44</v>
+      </c>
+      <c r="B294">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>25.49</v>
+      </c>
+      <c r="B295">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>25.63</v>
+      </c>
+      <c r="B296">
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>25.83</v>
+      </c>
+      <c r="B297">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>26.3</v>
+      </c>
+      <c r="B298">
+        <v>24.61</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>26.34</v>
+      </c>
+      <c r="B299">
+        <v>23.58</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>26.7</v>
+      </c>
+      <c r="B300">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>27.74</v>
+      </c>
+      <c r="B301">
+        <v>26.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC484A4-F4B1-4211-8858-3AD160FDAD22}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.97847749700374798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.9574182121427196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.95727532023715833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.2451167561865917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10387.575943512078</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10387.575943512078</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6700.2970418901568</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.680478249628814E-206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="1">
+        <v>298</v>
+      </c>
+      <c r="C13" s="5">
+        <v>461.9940894879129</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.5503157365366205</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="2">
+        <v>299</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10849.570032999991</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.7779272265709221</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.15149198238468023</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11.736114338092632</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.1151993215216976E-26</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.4797975941548893</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.0760568589869548</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.4797975941548893</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.0760568589869548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.86773417211758253</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0600825176535428E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>81.855342170747534</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.6804782496286618E-206</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.84687220923718431</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.88859613499798074</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.84687220923718431</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.88859613499798074</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0516B0-9932-4294-AF92-293BD0A96A45}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12.57916666666666</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12.693300000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="1">
+        <v>46.139153483835187</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36.286187401337607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="1">
+        <v>299</v>
+      </c>
+      <c r="C7" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.2715348949042349</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.9099334878920737E-2</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.209916742593254</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RT_predict_confirm.xlsx
+++ b/RT_predict_confirm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunwoo\PycharmProjects\RTPredict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF07FB41-56B4-4196-AC5D-83EF7A846BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BCE80C-B2E6-4330-96A0-F246B36C4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT_predict_confirm - 복사본" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="358">
   <si>
     <t>CN(C)C1=C(C=CC=C2S(=O)(NC(C(O)=O)CC3=CN(C)C=N3)=O)C2=CC=C1</t>
   </si>
@@ -1119,6 +1119,10 @@
   </si>
   <si>
     <t>F 기각치: 단측 검정</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1737,7 +1741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,6 +1758,9 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1801,7 +1808,47 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2134,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:XFD302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7067,11 +7114,11 @@
         <v>21.58</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:D321" si="8">C258-B258</f>
+        <f t="shared" ref="D258:D316" si="8">C258-B258</f>
         <v>2.1099999999999994</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="9">IF(OR(D258&lt;$G$5, D258&gt;$G$6),1,0)</f>
+        <f t="shared" ref="E258:E316" si="9">IF(OR(D258&lt;$G$5, D258&gt;$G$6),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8185,10 +8232,10 @@
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D2:D316">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>$G$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>$G$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8200,8 +8247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5219294-D300-4A8D-BE19-3E0E26E14704}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10625,10 +10672,15 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10721,7 +10773,7 @@
       <c r="E12" s="1">
         <v>6700.2970418901568</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>2.680478249628814E-206</v>
       </c>
     </row>
@@ -10740,6 +10792,13 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="H13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" s="6">
+        <f>SQRT(D13)</f>
+        <v>1.2451167561865917</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -10852,7 +10911,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/RT_predict_confirm.xlsx
+++ b/RT_predict_confirm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunwoo\PycharmProjects\RTPredict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BCE80C-B2E6-4330-96A0-F246B36C4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB79469-D205-4699-A833-47FB9DA73BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT_predict_confirm - 복사본" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RT_predict_confirm - 복사본'!$A$1:$E$316</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1808,47 +1808,7 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8232,10 +8192,10 @@
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D2:D316">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$G$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$G$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8248,7 +8208,7 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10672,7 +10632,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10770,10 +10730,10 @@
       <c r="D12" s="1">
         <v>10387.575943512078</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>6700.2970418901568</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>2.680478249628814E-206</v>
       </c>
     </row>
@@ -10915,6 +10875,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/RT_predict_confirm.xlsx
+++ b/RT_predict_confirm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunwoo\PycharmProjects\RTPredict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB79469-D205-4699-A833-47FB9DA73BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D0C99-8D30-4C0D-85D2-8F4E8B1EB26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34350" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT_predict_confirm - 복사본" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>CN(C)C1=C(C=CC=C2S(=O)(OC3=CC=C(CC(O)=O)C=C3)=O)C2=CC=C1</t>
   </si>
   <si>
-    <t>CN(C)C1=C(C=CC=C2S(=O)(NC(C(O)=O)CC3=CC(I)=C(OS(O)(C4=CC=CC5=C(N(C)C)C=CC=C54)=O)C=C3)=O)C2=CC=C1</t>
-  </si>
-  <si>
     <t>CN(C)C1=C(C=CC=C2S(=O)(NCCC3=CC(OC)=C(C=C3)OS(C4=CC=CC5=C(N(C)C)C=CC=C54)(=O)=O)=O)C2=CC=C1</t>
   </si>
   <si>
@@ -1122,6 +1119,10 @@
   </si>
   <si>
     <t>RMSE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O=C(O)C(NS(C1=C2C(C(N(C)C)=CC=C2)=CC=C1)(=O)=O)CC3=CC(I)=C(OS(C4=C5C(C(N(C)C)=CC=C5)=CC=C4)(=O)=O)C=C3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2141,32 +2142,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="I293" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" t="s">
         <v>316</v>
       </c>
-      <c r="C1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" t="s">
-        <v>317</v>
-      </c>
       <c r="E1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2">
         <v>1.1499999999999999</v>
@@ -2183,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2">
         <f>_xlfn.QUARTILE.INC(D2:D316,1)</f>
@@ -2192,7 +2196,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>1.28</v>
@@ -2209,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3">
         <f>_xlfn.QUARTILE.INC(D2:D316,3)</f>
@@ -2218,7 +2222,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4">
         <v>1.44</v>
@@ -2235,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4">
         <f>G3-G2</f>
@@ -2244,7 +2248,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>1.48</v>
@@ -2261,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5">
         <f>G2-(G4*1.5)</f>
@@ -2270,7 +2274,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>1.49</v>
@@ -2287,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G6">
         <f>G3+(G4*1.5)</f>
@@ -2296,7 +2300,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>1.59</v>
@@ -2315,7 +2319,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8">
         <v>1.6</v>
@@ -2334,7 +2338,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9">
         <v>1.64</v>
@@ -2353,7 +2357,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>1.69</v>
@@ -2372,7 +2376,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1.75</v>
@@ -2391,7 +2395,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <v>1.79</v>
@@ -2410,7 +2414,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1.88</v>
@@ -2429,7 +2433,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>2.0099999999999998</v>
@@ -2448,7 +2452,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2.02</v>
@@ -2467,7 +2471,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>2.12</v>
@@ -2505,7 +2509,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>2.2200000000000002</v>
@@ -2524,7 +2528,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>2.2400000000000002</v>
@@ -2543,7 +2547,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>2.2599999999999998</v>
@@ -2562,7 +2566,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>2.44</v>
@@ -2581,7 +2585,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22">
         <v>2.4700000000000002</v>
@@ -2619,7 +2623,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2.74</v>
@@ -2638,7 +2642,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25">
         <v>2.81</v>
@@ -2657,7 +2661,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>2.87</v>
@@ -2676,7 +2680,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27">
         <v>2.94</v>
@@ -2695,7 +2699,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2714,7 +2718,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -2733,7 +2737,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -2752,7 +2756,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>3.02</v>
@@ -2771,7 +2775,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32">
         <v>3.05</v>
@@ -2790,7 +2794,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33">
         <v>3.27</v>
@@ -2809,7 +2813,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>3.32</v>
@@ -2828,7 +2832,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35">
         <v>3.32</v>
@@ -2847,7 +2851,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36">
         <v>3.39</v>
@@ -2866,7 +2870,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37">
         <v>3.44</v>
@@ -2885,7 +2889,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38">
         <v>3.65</v>
@@ -2904,7 +2908,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39">
         <v>3.72</v>
@@ -2923,7 +2927,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40">
         <v>3.74</v>
@@ -2942,7 +2946,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41">
         <v>3.84</v>
@@ -2961,7 +2965,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>3.94</v>
@@ -2980,7 +2984,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>4.05</v>
@@ -2999,7 +3003,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44">
         <v>4.2</v>
@@ -3018,7 +3022,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>4.4000000000000004</v>
@@ -3037,7 +3041,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46">
         <v>4.47</v>
@@ -3056,7 +3060,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47">
         <v>4.5199999999999996</v>
@@ -3075,7 +3079,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48">
         <v>4.58</v>
@@ -3094,7 +3098,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49">
         <v>4.66</v>
@@ -3113,7 +3117,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>5.05</v>
@@ -3132,7 +3136,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>5.16</v>
@@ -3151,7 +3155,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>5.17</v>
@@ -3170,7 +3174,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B53">
         <v>5.49</v>
@@ -3189,7 +3193,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54">
         <v>5.57</v>
@@ -3208,7 +3212,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>5.65</v>
@@ -3227,7 +3231,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>5.71</v>
@@ -3246,7 +3250,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>5.79</v>
@@ -3265,7 +3269,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>5.82</v>
@@ -3284,7 +3288,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59">
         <v>5.85</v>
@@ -3303,7 +3307,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>5.87</v>
@@ -3322,7 +3326,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61">
         <v>5.97</v>
@@ -3341,7 +3345,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62">
         <v>5.98</v>
@@ -3360,7 +3364,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3379,7 +3383,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>6.03</v>
@@ -3398,7 +3402,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65">
         <v>6.06</v>
@@ -3417,7 +3421,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66">
         <v>6.19</v>
@@ -3436,7 +3440,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67">
         <v>6.4</v>
@@ -3455,7 +3459,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>6.59</v>
@@ -3474,7 +3478,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69">
         <v>6.72</v>
@@ -3493,7 +3497,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>6.79</v>
@@ -3512,7 +3516,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B71">
         <v>6.8</v>
@@ -3531,7 +3535,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72">
         <v>6.97</v>
@@ -3550,7 +3554,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73">
         <v>7.07</v>
@@ -3569,7 +3573,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74">
         <v>7.17</v>
@@ -3588,7 +3592,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75">
         <v>7.2</v>
@@ -3607,7 +3611,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>7.24</v>
@@ -3626,7 +3630,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B77">
         <v>7.25</v>
@@ -3645,7 +3649,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>7.38</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B79">
         <v>7.53</v>
@@ -3683,7 +3687,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80">
         <v>7.57</v>
@@ -3702,7 +3706,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81">
         <v>7.58</v>
@@ -3721,7 +3725,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82">
         <v>7.59</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B83">
         <v>7.6</v>
@@ -3759,7 +3763,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84">
         <v>7.68</v>
@@ -3778,7 +3782,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85">
         <v>7.79</v>
@@ -3797,7 +3801,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <v>7.84</v>
@@ -3816,7 +3820,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B87">
         <v>8.07</v>
@@ -3835,7 +3839,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B88">
         <v>8.27</v>
@@ -3854,7 +3858,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B89">
         <v>8.2899999999999991</v>
@@ -3873,7 +3877,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B90">
         <v>8.3699999999999992</v>
@@ -3892,7 +3896,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B91">
         <v>8.3800000000000008</v>
@@ -3911,7 +3915,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B92">
         <v>8.42</v>
@@ -3930,7 +3934,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>8.49</v>
@@ -3949,7 +3953,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>8.5399999999999991</v>
@@ -3968,7 +3972,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>8.59</v>
@@ -3987,7 +3991,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B96">
         <v>8.6199999999999992</v>
@@ -4006,7 +4010,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97">
         <v>8.67</v>
@@ -4025,7 +4029,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B98">
         <v>8.67</v>
@@ -4044,7 +4048,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B99">
         <v>8.68</v>
@@ -4063,7 +4067,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100">
         <v>8.7200000000000006</v>
@@ -4082,7 +4086,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B101">
         <v>8.73</v>
@@ -4101,7 +4105,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102">
         <v>8.73</v>
@@ -4120,7 +4124,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B103">
         <v>8.8699999999999992</v>
@@ -4139,7 +4143,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B104">
         <v>8.9</v>
@@ -4158,7 +4162,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B105">
         <v>8.91</v>
@@ -4177,7 +4181,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106">
         <v>8.9499999999999993</v>
@@ -4196,7 +4200,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B107">
         <v>8.9499999999999993</v>
@@ -4215,7 +4219,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B108">
         <v>9.06</v>
@@ -4234,7 +4238,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B109">
         <v>9.1300000000000008</v>
@@ -4253,7 +4257,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B110">
         <v>9.19</v>
@@ -4272,7 +4276,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>9.23</v>
@@ -4291,7 +4295,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>9.26</v>
@@ -4310,7 +4314,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B113">
         <v>9.34</v>
@@ -4329,7 +4333,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B114">
         <v>9.3699999999999992</v>
@@ -4348,7 +4352,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B115">
         <v>9.3800000000000008</v>
@@ -4367,7 +4371,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116">
         <v>9.39</v>
@@ -4386,7 +4390,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B117">
         <v>9.43</v>
@@ -4405,7 +4409,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118">
         <v>9.4600000000000009</v>
@@ -4424,7 +4428,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B119">
         <v>9.51</v>
@@ -4443,7 +4447,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>9.5500000000000007</v>
@@ -4462,7 +4466,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B121">
         <v>9.57</v>
@@ -4481,7 +4485,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B122">
         <v>9.65</v>
@@ -4500,7 +4504,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B123">
         <v>9.7899999999999991</v>
@@ -4519,7 +4523,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B124">
         <v>9.82</v>
@@ -4538,7 +4542,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>10.07</v>
@@ -4557,7 +4561,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B126">
         <v>10.119999999999999</v>
@@ -4576,7 +4580,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B127">
         <v>10.14</v>
@@ -4595,7 +4599,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B128">
         <v>10.18</v>
@@ -4614,7 +4618,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B129">
         <v>10.18</v>
@@ -4633,7 +4637,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130">
         <v>10.210000000000001</v>
@@ -4652,7 +4656,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131">
         <v>10.32</v>
@@ -4671,7 +4675,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132">
         <v>10.52</v>
@@ -4690,7 +4694,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133">
         <v>10.54</v>
@@ -4709,7 +4713,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B134">
         <v>10.58</v>
@@ -4728,7 +4732,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B135">
         <v>10.77</v>
@@ -4747,7 +4751,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B136">
         <v>10.78</v>
@@ -4766,7 +4770,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B137">
         <v>10.78</v>
@@ -4785,7 +4789,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138">
         <v>10.81</v>
@@ -4804,7 +4808,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B139">
         <v>10.82</v>
@@ -4823,7 +4827,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B140">
         <v>10.89</v>
@@ -4842,7 +4846,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B141">
         <v>11</v>
@@ -4861,7 +4865,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B142">
         <v>11.05</v>
@@ -4880,7 +4884,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143">
         <v>11.09</v>
@@ -4899,7 +4903,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B144">
         <v>11.12</v>
@@ -4918,7 +4922,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B145">
         <v>11.19</v>
@@ -4937,7 +4941,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B146">
         <v>11.22</v>
@@ -4956,7 +4960,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B147">
         <v>11.34</v>
@@ -4975,7 +4979,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B148">
         <v>11.36</v>
@@ -4994,7 +4998,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B149">
         <v>11.36</v>
@@ -5013,7 +5017,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B150">
         <v>11.37</v>
@@ -5032,7 +5036,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B151">
         <v>11.44</v>
@@ -5051,7 +5055,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B152">
         <v>11.44</v>
@@ -5070,7 +5074,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B153">
         <v>11.52</v>
@@ -5089,7 +5093,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B154">
         <v>11.59</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B155">
         <v>11.65</v>
@@ -5127,7 +5131,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B156">
         <v>11.69</v>
@@ -5146,7 +5150,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B157">
         <v>11.76</v>
@@ -5165,7 +5169,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B158">
         <v>11.82</v>
@@ -5184,7 +5188,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B159">
         <v>11.91</v>
@@ -5203,7 +5207,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B160">
         <v>11.97</v>
@@ -5222,7 +5226,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161">
         <v>12.01</v>
@@ -5241,7 +5245,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B162">
         <v>12.02</v>
@@ -5260,7 +5264,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B163">
         <v>12.11</v>
@@ -5279,7 +5283,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B164">
         <v>12.21</v>
@@ -5298,7 +5302,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B165">
         <v>12.22</v>
@@ -5317,7 +5321,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B166">
         <v>12.22</v>
@@ -5336,7 +5340,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167">
         <v>12.3</v>
@@ -5355,7 +5359,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B168">
         <v>12.74</v>
@@ -5374,7 +5378,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B169">
         <v>12.74</v>
@@ -5393,7 +5397,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B170">
         <v>12.81</v>
@@ -5412,7 +5416,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B171">
         <v>12.94</v>
@@ -5431,7 +5435,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B172">
         <v>12.96</v>
@@ -5450,7 +5454,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B173">
         <v>12.99</v>
@@ -5469,7 +5473,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B174">
         <v>13.06</v>
@@ -5488,7 +5492,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B175">
         <v>13.13</v>
@@ -5507,7 +5511,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B176">
         <v>13.2</v>
@@ -5526,7 +5530,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B177">
         <v>13.21</v>
@@ -5545,7 +5549,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B178">
         <v>13.23</v>
@@ -5564,7 +5568,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B179">
         <v>13.33</v>
@@ -5583,7 +5587,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B180">
         <v>13.34</v>
@@ -5602,7 +5606,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B181">
         <v>13.36</v>
@@ -5621,7 +5625,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B182">
         <v>13.45</v>
@@ -5640,7 +5644,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B183">
         <v>13.52</v>
@@ -5659,7 +5663,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B184">
         <v>13.57</v>
@@ -5678,7 +5682,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B185">
         <v>13.61</v>
@@ -5697,7 +5701,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B186">
         <v>13.61</v>
@@ -5716,7 +5720,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B187">
         <v>13.62</v>
@@ -5735,7 +5739,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B188">
         <v>13.65</v>
@@ -5754,7 +5758,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B189">
         <v>13.69</v>
@@ -5773,7 +5777,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190">
         <v>13.72</v>
@@ -5792,7 +5796,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B191">
         <v>13.77</v>
@@ -5811,7 +5815,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B192">
         <v>13.87</v>
@@ -5830,7 +5834,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B193">
         <v>13.88</v>
@@ -5849,7 +5853,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B194">
         <v>14.11</v>
@@ -5868,7 +5872,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B195">
         <v>14.11</v>
@@ -5887,7 +5891,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B196">
         <v>14.12</v>
@@ -5906,7 +5910,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B197">
         <v>14.29</v>
@@ -5925,7 +5929,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B198">
         <v>14.32</v>
@@ -5944,7 +5948,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B199">
         <v>14.39</v>
@@ -5963,7 +5967,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B200">
         <v>14.6</v>
@@ -5982,7 +5986,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B201">
         <v>15.07</v>
@@ -6001,7 +6005,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202">
         <v>15.08</v>
@@ -6020,7 +6024,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B203">
         <v>15.09</v>
@@ -6039,7 +6043,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B204">
         <v>15.09</v>
@@ -6058,7 +6062,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B205">
         <v>15.13</v>
@@ -6077,7 +6081,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B206">
         <v>15.28</v>
@@ -6096,7 +6100,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B207">
         <v>15.29</v>
@@ -6115,7 +6119,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B208">
         <v>15.32</v>
@@ -6134,7 +6138,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B209">
         <v>15.36</v>
@@ -6153,7 +6157,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B210">
         <v>15.42</v>
@@ -6172,7 +6176,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B211">
         <v>15.55</v>
@@ -6191,7 +6195,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B212">
         <v>15.62</v>
@@ -6210,7 +6214,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>15.65</v>
@@ -6229,7 +6233,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B214">
         <v>15.69</v>
@@ -6248,7 +6252,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B215">
         <v>15.77</v>
@@ -6267,7 +6271,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B216">
         <v>15.8</v>
@@ -6286,7 +6290,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B217">
         <v>15.82</v>
@@ -6305,7 +6309,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B218">
         <v>15.9</v>
@@ -6324,7 +6328,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B219">
         <v>16.29</v>
@@ -6343,7 +6347,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B220">
         <v>16.3</v>
@@ -6362,7 +6366,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B221">
         <v>16.309999999999999</v>
@@ -6381,7 +6385,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B222">
         <v>16.350000000000001</v>
@@ -6400,7 +6404,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B223">
         <v>16.38</v>
@@ -6419,7 +6423,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B224">
         <v>16.420000000000002</v>
@@ -6438,7 +6442,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B225">
         <v>16.510000000000002</v>
@@ -6457,7 +6461,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B226">
         <v>16.52</v>
@@ -6476,7 +6480,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B227">
         <v>16.55</v>
@@ -6495,7 +6499,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B228">
         <v>16.579999999999998</v>
@@ -6514,7 +6518,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B229">
         <v>16.59</v>
@@ -6533,7 +6537,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B230">
         <v>16.62</v>
@@ -6552,7 +6556,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B231">
         <v>16.690000000000001</v>
@@ -6571,7 +6575,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B232">
         <v>16.72</v>
@@ -6590,7 +6594,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>16.8</v>
@@ -6628,7 +6632,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B235">
         <v>17.11</v>
@@ -6647,7 +6651,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236">
         <v>17.32</v>
@@ -6666,7 +6670,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B237">
         <v>17.34</v>
@@ -6685,7 +6689,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B238">
         <v>17.47</v>
@@ -6704,7 +6708,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B239">
         <v>17.489999999999998</v>
@@ -6723,7 +6727,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B240">
         <v>17.57</v>
@@ -6742,7 +6746,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B241">
         <v>17.62</v>
@@ -6761,7 +6765,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B242">
         <v>18.010000000000002</v>
@@ -6780,7 +6784,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B243">
         <v>18.03</v>
@@ -6799,7 +6803,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B244">
         <v>18.04</v>
@@ -6818,7 +6822,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B245">
         <v>18.09</v>
@@ -6837,7 +6841,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B246">
         <v>18.100000000000001</v>
@@ -6856,7 +6860,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B247">
         <v>18.14</v>
@@ -6875,7 +6879,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B248">
         <v>18.47</v>
@@ -6894,7 +6898,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B249">
         <v>18.510000000000002</v>
@@ -6913,7 +6917,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B250">
         <v>18.559999999999999</v>
@@ -6932,7 +6936,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B251">
         <v>18.63</v>
@@ -6951,7 +6955,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B252">
         <v>19.14</v>
@@ -6970,7 +6974,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B253">
         <v>19.2</v>
@@ -6989,7 +6993,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B254">
         <v>19.27</v>
@@ -7008,7 +7012,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B255">
         <v>19.38</v>
@@ -7027,7 +7031,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B256">
         <v>19.43</v>
@@ -7046,7 +7050,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B257">
         <v>19.45</v>
@@ -7065,7 +7069,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B258">
         <v>19.47</v>
@@ -7084,7 +7088,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B259">
         <v>19.95</v>
@@ -7103,7 +7107,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B260">
         <v>20.079999999999998</v>
@@ -7122,7 +7126,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B261">
         <v>20.190000000000001</v>
@@ -7141,7 +7145,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B262">
         <v>20.29</v>
@@ -7160,7 +7164,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B263">
         <v>20.36</v>
@@ -7198,7 +7202,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B265">
         <v>20.61</v>
@@ -7217,7 +7221,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B266">
         <v>20.77</v>
@@ -7236,7 +7240,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B267">
         <v>20.86</v>
@@ -7255,7 +7259,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B268">
         <v>21.24</v>
@@ -7274,7 +7278,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B269">
         <v>21.27</v>
@@ -7293,7 +7297,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B270">
         <v>21.31</v>
@@ -7312,7 +7316,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B271">
         <v>21.63</v>
@@ -7331,7 +7335,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B272">
         <v>21.64</v>
@@ -7350,7 +7354,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B273">
         <v>21.73</v>
@@ -7369,7 +7373,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B274">
         <v>21.85</v>
@@ -7388,7 +7392,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B275">
         <v>22.09</v>
@@ -7407,7 +7411,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B276">
         <v>22.38</v>
@@ -7426,7 +7430,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B277">
         <v>22.39</v>
@@ -7445,7 +7449,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B278">
         <v>22.52</v>
@@ -7464,7 +7468,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B279">
         <v>22.54</v>
@@ -7483,7 +7487,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B280">
         <v>22.61</v>
@@ -7502,7 +7506,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B281">
         <v>22.61</v>
@@ -7521,7 +7525,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B282">
         <v>22.65</v>
@@ -7540,7 +7544,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B283">
         <v>22.83</v>
@@ -7559,7 +7563,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B284">
         <v>23.16</v>
@@ -7578,7 +7582,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B285">
         <v>23.25</v>
@@ -7597,7 +7601,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B286">
         <v>23.41</v>
@@ -7616,7 +7620,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B287">
         <v>23.45</v>
@@ -7635,7 +7639,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B288">
         <v>23.57</v>
@@ -7654,7 +7658,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B289">
         <v>23.75</v>
@@ -7673,7 +7677,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B290">
         <v>23.77</v>
@@ -7692,7 +7696,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="B291">
         <v>23.88</v>
@@ -7711,7 +7715,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B292">
         <v>23.9</v>
@@ -7730,7 +7734,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B293">
         <v>23.93</v>
@@ -7749,7 +7753,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B294">
         <v>23.98</v>
@@ -7768,7 +7772,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B295">
         <v>24.1</v>
@@ -7787,7 +7791,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B296">
         <v>24.18</v>
@@ -7806,7 +7810,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B297">
         <v>24.22</v>
@@ -7825,7 +7829,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B298">
         <v>24.44</v>
@@ -7844,7 +7848,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B299">
         <v>24.51</v>
@@ -7863,7 +7867,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B300">
         <v>24.54</v>
@@ -7882,7 +7886,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B301">
         <v>24.6</v>
@@ -7901,7 +7905,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B302">
         <v>24.64</v>
@@ -7920,7 +7924,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B303">
         <v>24.65</v>
@@ -7939,7 +7943,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B304">
         <v>24.69</v>
@@ -7958,7 +7962,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B305">
         <v>24.84</v>
@@ -7977,7 +7981,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B306">
         <v>24.95</v>
@@ -7996,7 +8000,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B307">
         <v>25.04</v>
@@ -8015,7 +8019,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B308">
         <v>25.39</v>
@@ -8034,7 +8038,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B309">
         <v>25.44</v>
@@ -8053,7 +8057,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B310">
         <v>25.49</v>
@@ -8072,7 +8076,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B311">
         <v>25.63</v>
@@ -8091,7 +8095,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B312">
         <v>25.83</v>
@@ -8110,7 +8114,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B313">
         <v>26.3</v>
@@ -8129,7 +8133,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B314">
         <v>26.34</v>
@@ -8148,7 +8152,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B315">
         <v>26.7</v>
@@ -8167,7 +8171,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B316">
         <v>27.74</v>
@@ -8215,10 +8219,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -10631,7 +10635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC484A4-F4B1-4211-8858-3AD160FDAD22}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -10644,19 +10648,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="1">
         <v>0.97847749700374798</v>
@@ -10664,7 +10668,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="1">
         <v>0.9574182121427196</v>
@@ -10672,7 +10676,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B6" s="5">
         <v>0.95727532023715833</v>
@@ -10680,7 +10684,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="1">
         <v>1.2451167561865917</v>
@@ -10688,7 +10692,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" s="2">
         <v>300</v>
@@ -10696,30 +10700,30 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -10739,7 +10743,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13" s="1">
         <v>298</v>
@@ -10753,7 +10757,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="H13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I13" s="6">
         <f>SQRT(D13)</f>
@@ -10762,7 +10766,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="2">
         <v>299</v>
@@ -10778,33 +10782,33 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B17" s="1">
         <v>1.7779272265709221</v>
@@ -10833,7 +10837,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B18" s="2">
         <v>0.86773417211758253</v>
@@ -10881,22 +10885,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" s="1">
         <v>12.57916666666666</v>
@@ -10907,7 +10911,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="1">
         <v>46.139153483835187</v>
@@ -10918,7 +10922,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1">
         <v>300</v>
@@ -10929,7 +10933,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" s="1">
         <v>299</v>
@@ -10940,7 +10944,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="5">
         <v>1.2715348949042349</v>
@@ -10949,7 +10953,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="1">
         <v>1.9099334878920737E-2</v>
@@ -10958,7 +10962,7 @@
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" s="2">
         <v>1.209916742593254</v>
